--- a/contatos_checados.xlsx
+++ b/contatos_checados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,17 +466,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>974151186</v>
+        <v>991720066</v>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>991720066</v>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/contatos_checados.xlsx
+++ b/contatos_checados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,6 +471,20 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>966652864</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>979127170</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/contatos_checados.xlsx
+++ b/contatos_checados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,31 +459,17 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>968497739</v>
+        <v>992575078</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>991720066</v>
+        <v>966652864</v>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>966652864</v>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>979127170</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/contatos_checados.xlsx
+++ b/contatos_checados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,17 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>966652864</v>
+        <v>990033942</v>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>966652864</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/contatos_checados.xlsx
+++ b/contatos_checados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,16 @@
           <t>data</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Código do imóvel</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -456,27 +466,27 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>992575078</v>
+        <v>992193853</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>990033942</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>966652864</v>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/contatos_checados.xlsx
+++ b/contatos_checados.xlsx
@@ -1,43 +1,77 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Telefone</t>
+  </si>
+  <si>
+    <t>Processo</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>Código do imóvel</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -46,93 +80,71 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="10">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -141,10 +153,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -182,69 +194,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -268,54 +282,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -325,7 +338,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -334,7 +347,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -343,7 +356,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -351,10 +364,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -383,7 +396,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -396,13 +409,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -420,75 +432,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Telefone</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Processo</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>data</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Código do imóvel</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>992193853</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GOLDEN26</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/contatos_checados.xlsx
+++ b/contatos_checados.xlsx
@@ -1,77 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Telefone</t>
-  </si>
-  <si>
-    <t>Processo</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>Código do imóvel</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -80,71 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -153,10 +141,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -194,71 +182,69 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -282,53 +268,54 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -338,7 +325,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -347,7 +334,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -356,7 +343,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -364,10 +351,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -396,7 +383,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -409,12 +396,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -432,63 +420,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Telefone</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Processo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Código do imóvel</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>974151186</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>GOLDEN29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="6"/>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>989107543</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>GOLDEN29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>989107543</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/contatos_checados.xlsx
+++ b/contatos_checados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>974151186</v>
+        <v>967208668</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
@@ -490,29 +490,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>989107543</v>
+        <v>967208668</v>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>GOLDEN29</t>
+          <t>GOLDEN26</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>989107543</v>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GOLDEN26</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/contatos_checados.xlsx
+++ b/contatos_checados.xlsx
@@ -1,43 +1,77 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+  <si>
+    <t>Telefone</t>
+  </si>
+  <si>
+    <t>Processo</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>Código do imóvel</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -46,93 +80,71 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="10">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -141,10 +153,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -182,69 +194,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -268,54 +282,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -325,7 +338,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -334,7 +347,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -343,7 +356,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -351,10 +364,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -383,7 +396,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -396,13 +409,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -420,88 +432,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Telefone</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Processo</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>data</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Código do imóvel</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>967208668</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GOLDEN29</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="6"/>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>967208668</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>GOLDEN26</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/contatos_checados.xlsx
+++ b/contatos_checados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="356">
   <si>
     <t>Telefone</t>
   </si>
@@ -32,6 +32,1053 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>08/10/2023 14:16:28</t>
+  </si>
+  <si>
+    <t>NFCAD205</t>
+  </si>
+  <si>
+    <t>http:/www.zapimoveis.com.br/imovel/imovel-id-2421725491, http://www.vivareal.com.br/imovel/vivapro-id-2421725491</t>
+  </si>
+  <si>
+    <t>03/10/2023 00:49:07</t>
+  </si>
+  <si>
+    <t>boulevard907</t>
+  </si>
+  <si>
+    <t>http:/www.zapimoveis.com.br/imovel/imovel-id-2531346981, http://www.vivareal.com.br/imovel/vivapro-id-2531346981</t>
+  </si>
+  <si>
+    <t>21/09/2023 21:51:37</t>
+  </si>
+  <si>
+    <t>GOLDEN26</t>
+  </si>
+  <si>
+    <t>http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153, http://www.vivareal.com.br/imovel/vivapro-id-2645537153</t>
+  </si>
+  <si>
+    <t>19/09/2023 15:04:19</t>
+  </si>
+  <si>
+    <t>19/09/2023 14:53:15</t>
+  </si>
+  <si>
+    <t>18/09/2023 16:11:26</t>
+  </si>
+  <si>
+    <t>18/09/2023 10:11:45</t>
+  </si>
+  <si>
+    <t>14/09/2023 16:32:10</t>
+  </si>
+  <si>
+    <t>14/09/2023 12:56:47</t>
+  </si>
+  <si>
+    <t>14/09/2023 11:57:39</t>
+  </si>
+  <si>
+    <t>13/09/2023 21:09:41</t>
+  </si>
+  <si>
+    <t>13/09/2023 15:41:20</t>
+  </si>
+  <si>
+    <t>13/09/2023 15:41:06</t>
+  </si>
+  <si>
+    <t>13/09/2023 15:26:24</t>
+  </si>
+  <si>
+    <t>12/09/2023 20:57:22</t>
+  </si>
+  <si>
+    <t>12/09/2023 17:29:35</t>
+  </si>
+  <si>
+    <t>12/09/2023 15:28:29</t>
+  </si>
+  <si>
+    <t>12/09/2023 15:28:28</t>
+  </si>
+  <si>
+    <t>10/09/2023 17:01:14</t>
+  </si>
+  <si>
+    <t>09/09/2023 16:40:47</t>
+  </si>
+  <si>
+    <t>09/09/2023 13:56:13</t>
+  </si>
+  <si>
+    <t>07/09/2023 14:10:25</t>
+  </si>
+  <si>
+    <t>03/09/2023 18:22:37</t>
+  </si>
+  <si>
+    <t>31/08/2023 15:10:05</t>
+  </si>
+  <si>
+    <t>29/08/2023 12:41:08</t>
+  </si>
+  <si>
+    <t>28/08/2023 09:48:01</t>
+  </si>
+  <si>
+    <t>25/08/2023 23:55:48</t>
+  </si>
+  <si>
+    <t>25/08/2023 23:55:11</t>
+  </si>
+  <si>
+    <t>24/08/2023 14:27:59</t>
+  </si>
+  <si>
+    <t>23/08/2023 20:18:48</t>
+  </si>
+  <si>
+    <t>22/08/2023 15:41:53</t>
+  </si>
+  <si>
+    <t>21/08/2023 08:30:32</t>
+  </si>
+  <si>
+    <t>20/08/2023 10:56:28</t>
+  </si>
+  <si>
+    <t>19/08/2023 14:06:48</t>
+  </si>
+  <si>
+    <t>15/08/2023 15:43:36</t>
+  </si>
+  <si>
+    <t>15/08/2023 15:14:21</t>
+  </si>
+  <si>
+    <t>10/08/2023 17:34:43</t>
+  </si>
+  <si>
+    <t>10/08/2023 16:29:53</t>
+  </si>
+  <si>
+    <t>10/08/2023 13:08:05</t>
+  </si>
+  <si>
+    <t>09/08/2023 18:28:49</t>
+  </si>
+  <si>
+    <t>09/08/2023 15:04:11</t>
+  </si>
+  <si>
+    <t>09/08/2023 08:56:05</t>
+  </si>
+  <si>
+    <t>MESQUITA</t>
+  </si>
+  <si>
+    <t>http:/www.zapimoveis.com.br/imovel/imovel-id-2573849041, http://www.vivareal.com.br/imovel/vivapro-id-2573849041</t>
+  </si>
+  <si>
+    <t>06/08/2023 21:50:48</t>
+  </si>
+  <si>
+    <t>05/08/2023 12:25:36</t>
+  </si>
+  <si>
+    <t>VI36602</t>
+  </si>
+  <si>
+    <t>http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473, http://www.vivareal.com.br/imovel/vivapro-id-2643138473</t>
+  </si>
+  <si>
+    <t>04/08/2023 16:09:24</t>
+  </si>
+  <si>
+    <t>04/08/2023 15:43:31</t>
+  </si>
+  <si>
+    <t>04/08/2023 15:43:20</t>
+  </si>
+  <si>
+    <t>04/08/2023 08:35:24</t>
+  </si>
+  <si>
+    <t>04/08/2023 08:29:01</t>
+  </si>
+  <si>
+    <t>03/08/2023 23:42:14</t>
+  </si>
+  <si>
+    <t>03/08/2023 22:38:12</t>
+  </si>
+  <si>
+    <t>03/08/2023 11:06:39</t>
+  </si>
+  <si>
+    <t>03/08/2023 07:31:54</t>
+  </si>
+  <si>
+    <t>03/08/2023 01:32:55</t>
+  </si>
+  <si>
+    <t>03/08/2023 01:30:57</t>
+  </si>
+  <si>
+    <t>02/08/2023 21:43:19</t>
+  </si>
+  <si>
+    <t>02/08/2023 21:39:25</t>
+  </si>
+  <si>
+    <t>02/08/2023 15:49:15</t>
+  </si>
+  <si>
+    <t>02/08/2023 12:09:34</t>
+  </si>
+  <si>
+    <t>02/08/2023 11:35:43</t>
+  </si>
+  <si>
+    <t>02/08/2023 11:02:10</t>
+  </si>
+  <si>
+    <t>02/08/2023 11:01:27</t>
+  </si>
+  <si>
+    <t>01/08/2023 23:47:14</t>
+  </si>
+  <si>
+    <t>01/08/2023 22:02:33</t>
+  </si>
+  <si>
+    <t>01/08/2023 18:12:38</t>
+  </si>
+  <si>
+    <t>01/08/2023 17:38:56</t>
+  </si>
+  <si>
+    <t>01/08/2023 17:24:16</t>
+  </si>
+  <si>
+    <t>01/08/2023 14:56:06</t>
+  </si>
+  <si>
+    <t>01/08/2023 14:55:18</t>
+  </si>
+  <si>
+    <t>01/08/2023 14:46:26</t>
+  </si>
+  <si>
+    <t>01/08/2023 13:16:32</t>
+  </si>
+  <si>
+    <t>31/07/2023 22:06:02</t>
+  </si>
+  <si>
+    <t>31/07/2023 14:12:51</t>
+  </si>
+  <si>
+    <t>28/07/2023 14:12:04</t>
+  </si>
+  <si>
+    <t>28/07/2023 09:34:11</t>
+  </si>
+  <si>
+    <t>27/07/2023 18:55:19</t>
+  </si>
+  <si>
+    <t>27/07/2023 18:26:12</t>
+  </si>
+  <si>
+    <t>27/07/2023 17:52:40</t>
+  </si>
+  <si>
+    <t>27/07/2023 15:27:11</t>
+  </si>
+  <si>
+    <t>27/07/2023 12:22:28</t>
+  </si>
+  <si>
+    <t>27/07/2023 01:30:23</t>
+  </si>
+  <si>
+    <t>26/07/2023 17:35:57</t>
+  </si>
+  <si>
+    <t>26/07/2023 15:00:49</t>
+  </si>
+  <si>
+    <t>26/07/2023 12:31:51</t>
+  </si>
+  <si>
+    <t>25/07/2023 13:01:30</t>
+  </si>
+  <si>
+    <t>25/07/2023 07:50:04</t>
+  </si>
+  <si>
+    <t>24/07/2023 14:26:59</t>
+  </si>
+  <si>
+    <t>24/07/2023 14:03:11</t>
+  </si>
+  <si>
+    <t>23/07/2023 19:20:48</t>
+  </si>
+  <si>
+    <t>23/07/2023 17:49:13</t>
+  </si>
+  <si>
+    <t>23/07/2023 13:07:47</t>
+  </si>
+  <si>
+    <t>22/07/2023 21:18:16</t>
+  </si>
+  <si>
+    <t>22/07/2023 09:44:39</t>
+  </si>
+  <si>
+    <t>22/07/2023 04:15:47</t>
+  </si>
+  <si>
+    <t>22/07/2023 04:15:12</t>
+  </si>
+  <si>
+    <t>21/07/2023 23:16:33</t>
+  </si>
+  <si>
+    <t>21/07/2023 20:30:09</t>
+  </si>
+  <si>
+    <t>21/07/2023 18:54:25</t>
+  </si>
+  <si>
+    <t>21/07/2023 18:35:39</t>
+  </si>
+  <si>
+    <t>21/07/2023 14:36:13</t>
+  </si>
+  <si>
+    <t>21/07/2023 14:28:29</t>
+  </si>
+  <si>
+    <t>21/07/2023 10:03:26</t>
+  </si>
+  <si>
+    <t>20/07/2023 20:54:14</t>
+  </si>
+  <si>
+    <t>20/07/2023 19:26:18</t>
+  </si>
+  <si>
+    <t>20/07/2023 12:48:37</t>
+  </si>
+  <si>
+    <t>20/07/2023 11:50:48</t>
+  </si>
+  <si>
+    <t>20/07/2023 11:45:22</t>
+  </si>
+  <si>
+    <t>19/07/2023 16:11:01</t>
+  </si>
+  <si>
+    <t>19/07/2023 16:09:01</t>
+  </si>
+  <si>
+    <t>18/07/2023 17:20:10</t>
+  </si>
+  <si>
+    <t>17/07/2023 19:58:36</t>
+  </si>
+  <si>
+    <t>17/07/2023 18:53:25</t>
+  </si>
+  <si>
+    <t>17/07/2023 16:58:20</t>
+  </si>
+  <si>
+    <t>17/07/2023 15:21:35</t>
+  </si>
+  <si>
+    <t>17/07/2023 00:07:36</t>
+  </si>
+  <si>
+    <t>16/07/2023 14:29:16</t>
+  </si>
+  <si>
+    <t>16/07/2023 14:27:51</t>
+  </si>
+  <si>
+    <t>16/07/2023 13:57:29</t>
+  </si>
+  <si>
+    <t>16/07/2023 13:53:36</t>
+  </si>
+  <si>
+    <t>15/07/2023 11:49:11</t>
+  </si>
+  <si>
+    <t>14/07/2023 20:38:19</t>
+  </si>
+  <si>
+    <t>14/07/2023 19:25:35</t>
+  </si>
+  <si>
+    <t>13/07/2023 23:43:27</t>
+  </si>
+  <si>
+    <t>13/07/2023 18:36:09</t>
+  </si>
+  <si>
+    <t>13/07/2023 13:41:43</t>
+  </si>
+  <si>
+    <t>13/07/2023 10:23:45</t>
+  </si>
+  <si>
+    <t>12/07/2023 20:19:16</t>
+  </si>
+  <si>
+    <t>12/07/2023 13:34:50</t>
+  </si>
+  <si>
+    <t>12/07/2023 12:26:36</t>
+  </si>
+  <si>
+    <t>12/07/2023 10:59:46</t>
+  </si>
+  <si>
+    <t>12/07/2023 08:10:28</t>
+  </si>
+  <si>
+    <t>12/07/2023 00:50:22</t>
+  </si>
+  <si>
+    <t>11/07/2023 16:01:10</t>
+  </si>
+  <si>
+    <t>11/07/2023 15:25:09</t>
+  </si>
+  <si>
+    <t>11/07/2023 14:19:13</t>
+  </si>
+  <si>
+    <t>11/07/2023 13:30:43</t>
+  </si>
+  <si>
+    <t>10/07/2023 23:39:22</t>
+  </si>
+  <si>
+    <t>10/07/2023 23:26:04</t>
+  </si>
+  <si>
+    <t>10/07/2023 23:21:50</t>
+  </si>
+  <si>
+    <t>10/07/2023 22:29:23</t>
+  </si>
+  <si>
+    <t>10/07/2023 19:25:06</t>
+  </si>
+  <si>
+    <t>10/07/2023 18:50:52</t>
+  </si>
+  <si>
+    <t>10/07/2023 14:49:41</t>
+  </si>
+  <si>
+    <t>10/07/2023 11:30:59</t>
+  </si>
+  <si>
+    <t>10/07/2023 02:13:02</t>
+  </si>
+  <si>
+    <t>09/07/2023 11:51:14</t>
+  </si>
+  <si>
+    <t>08/07/2023 07:31:28</t>
+  </si>
+  <si>
+    <t>08/07/2023 04:04:57</t>
+  </si>
+  <si>
+    <t>08/07/2023 00:27:24</t>
+  </si>
+  <si>
+    <t>07/07/2023 22:00:56</t>
+  </si>
+  <si>
+    <t>02/07/2023 16:33:26</t>
+  </si>
+  <si>
+    <t>19/06/2023 20:05:07</t>
+  </si>
+  <si>
+    <t>17/06/2023 17:49:54</t>
+  </si>
+  <si>
+    <t>13/06/2023 11:02:11</t>
+  </si>
+  <si>
+    <t>RJVL603</t>
+  </si>
+  <si>
+    <t>http:/www.zapimoveis.com.br/imovel/imovel-id-2439213194, http://www.vivareal.com.br/imovel/vivapro-id-2439213194</t>
+  </si>
+  <si>
+    <t>08/06/2023 14:32:35</t>
+  </si>
+  <si>
+    <t>24/05/2023 15:56:57</t>
+  </si>
+  <si>
+    <t>CT000795</t>
+  </si>
+  <si>
+    <t>http:/www.zapimoveis.com.br/imovel/imovel-id-2622041352, http://www.vivareal.com.br/imovel/vivapro-id-2622041352</t>
+  </si>
+  <si>
+    <t>24/04/2023 17:17:19</t>
+  </si>
+  <si>
+    <t>VIL811OPEN</t>
+  </si>
+  <si>
+    <t>http:/www.zapimoveis.com.br/imovel/imovel-id-2490499111, http://www.vivareal.com.br/imovel/vivapro-id-2490499111</t>
+  </si>
+  <si>
+    <t>20/04/2023 10:38:14</t>
+  </si>
+  <si>
+    <t>11/04/2023 11:15:03</t>
+  </si>
+  <si>
+    <t>10/04/2023 12:42:08</t>
+  </si>
+  <si>
+    <t>04/04/2023 23:02:07</t>
+  </si>
+  <si>
+    <t>24/03/2023 18:31:06</t>
+  </si>
+  <si>
+    <t>TBG001</t>
+  </si>
+  <si>
+    <t>http:/www.zapimoveis.com.br/imovel/imovel-id-2499349478, http://www.vivareal.com.br/imovel/vivapro-id-2499349478</t>
+  </si>
+  <si>
+    <t>23/02/2023 22:56:10</t>
+  </si>
+  <si>
+    <t>13/02/2023 00:53:30</t>
+  </si>
+  <si>
+    <t>12/02/2023 11:33:07</t>
+  </si>
+  <si>
+    <t>06/02/2023 17:04:54</t>
+  </si>
+  <si>
+    <t>26/01/2023 16:14:57</t>
+  </si>
+  <si>
+    <t>25/01/2023 07:44:07</t>
+  </si>
+  <si>
+    <t>11/01/2023 15:42:14</t>
+  </si>
+  <si>
+    <t>REC301VEN</t>
+  </si>
+  <si>
+    <t>http:/www.zapimoveis.com.br/imovel/imovel-id-2474077575, http://www.vivareal.com.br/imovel/vivapro-id-2474077575</t>
+  </si>
+  <si>
+    <t>09/01/2023 10:52:20</t>
+  </si>
+  <si>
+    <t>07/01/2023 19:52:12</t>
+  </si>
+  <si>
+    <t>TH103FAB</t>
+  </si>
+  <si>
+    <t>http:/www.zapimoveis.com.br/imovel/imovel-id-2474710109, http://www.vivareal.com.br/imovel/vivapro-id-2474710109</t>
+  </si>
+  <si>
+    <t>07/01/2023 19:50:50</t>
+  </si>
+  <si>
+    <t>04/01/2023 11:00:48</t>
+  </si>
+  <si>
+    <t>ACQUAFINA6500</t>
+  </si>
+  <si>
+    <t>http:/www.zapimoveis.com.br/imovel/imovel-id-2520256575, http://www.vivareal.com.br/imovel/vivapro-id-2520256575</t>
+  </si>
+  <si>
+    <t>03/01/2023 16:18:16</t>
+  </si>
+  <si>
+    <t>02/01/2023 23:27:42</t>
+  </si>
+  <si>
+    <t>02/01/2023 15:35:36</t>
+  </si>
+  <si>
+    <t>31/12/2022 19:00:01</t>
+  </si>
+  <si>
+    <t>29/12/2022 14:00:37</t>
+  </si>
+  <si>
+    <t>27/12/2022 18:52:47</t>
+  </si>
+  <si>
+    <t>27/12/2022 18:36:40</t>
+  </si>
+  <si>
+    <t>CONDBOSQUE1493</t>
+  </si>
+  <si>
+    <t>http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192, http://www.vivareal.com.br/imovel/vivapro-id-2520254192</t>
+  </si>
+  <si>
+    <t>26/12/2022 20:58:40</t>
+  </si>
+  <si>
+    <t>26/12/2022 16:36:14</t>
+  </si>
+  <si>
+    <t>26/12/2022 12:23:47</t>
+  </si>
+  <si>
+    <t>26/12/2022 12:15:22</t>
+  </si>
+  <si>
+    <t>26/12/2022 12:13:57</t>
+  </si>
+  <si>
+    <t>23/12/2022 01:06:43</t>
+  </si>
+  <si>
+    <t>22/12/2022 10:59:21</t>
+  </si>
+  <si>
+    <t>22/12/2022 10:55:15</t>
+  </si>
+  <si>
+    <t>22/12/2022 10:54:44</t>
+  </si>
+  <si>
+    <t>22/12/2022 10:54:43</t>
+  </si>
+  <si>
+    <t>21/12/2022 19:05:19</t>
+  </si>
+  <si>
+    <t>21/12/2022 18:57:20</t>
+  </si>
+  <si>
+    <t>20/12/2022 12:18:14</t>
+  </si>
+  <si>
+    <t>20/12/2022 12:18:12</t>
+  </si>
+  <si>
+    <t>19/12/2022 13:34:15</t>
+  </si>
+  <si>
+    <t>16/12/2022 11:47:05</t>
+  </si>
+  <si>
+    <t>16/12/2022 08:06:30</t>
+  </si>
+  <si>
+    <t>13/12/2022 17:05:29</t>
+  </si>
+  <si>
+    <t>13/12/2022 15:42:26</t>
+  </si>
+  <si>
+    <t>13/12/2022 06:33:18</t>
+  </si>
+  <si>
+    <t>12/12/2022 23:10:01</t>
+  </si>
+  <si>
+    <t>11/12/2022 09:33:18</t>
+  </si>
+  <si>
+    <t>11/12/2022 08:12:22</t>
+  </si>
+  <si>
+    <t>10/12/2022 15:13:59</t>
+  </si>
+  <si>
+    <t>10/12/2022 13:31:33</t>
+  </si>
+  <si>
+    <t>07/12/2022 17:55:00</t>
+  </si>
+  <si>
+    <t>07/12/2022 17:50:06</t>
+  </si>
+  <si>
+    <t>07/12/2022 07:41:09</t>
+  </si>
+  <si>
+    <t>06/12/2022 18:20:02</t>
+  </si>
+  <si>
+    <t>05/12/2022 22:13:31</t>
+  </si>
+  <si>
+    <t>05/12/2022 11:44:56</t>
+  </si>
+  <si>
+    <t>04/12/2022 20:12:34</t>
+  </si>
+  <si>
+    <t>04/12/2022 16:28:43</t>
+  </si>
+  <si>
+    <t>04/12/2022 00:16:45</t>
+  </si>
+  <si>
+    <t>02/12/2022 10:53:49</t>
+  </si>
+  <si>
+    <t>01/12/2022 09:44:59</t>
+  </si>
+  <si>
+    <t>01/12/2022 06:34:14</t>
+  </si>
+  <si>
+    <t>30/11/2022 22:21:14</t>
+  </si>
+  <si>
+    <t>29/11/2022 20:17:18</t>
+  </si>
+  <si>
+    <t>29/11/2022 15:00:11</t>
+  </si>
+  <si>
+    <t>29/11/2022 12:22:57</t>
+  </si>
+  <si>
+    <t>28/11/2022 17:29:48</t>
+  </si>
+  <si>
+    <t>28/11/2022 12:33:03</t>
+  </si>
+  <si>
+    <t>27/11/2022 10:53:47</t>
+  </si>
+  <si>
+    <t>24/11/2022 13:22:19</t>
+  </si>
+  <si>
+    <t>22/11/2022 22:14:42</t>
+  </si>
+  <si>
+    <t>22/11/2022 22:11:53</t>
+  </si>
+  <si>
+    <t>22/11/2022 12:35:12</t>
+  </si>
+  <si>
+    <t>22/11/2022 10:12:03</t>
+  </si>
+  <si>
+    <t>22/11/2022 10:10:16</t>
+  </si>
+  <si>
+    <t>22/11/2022 08:41:50</t>
+  </si>
+  <si>
+    <t>22/11/2022 06:43:44</t>
+  </si>
+  <si>
+    <t>21/11/2022 16:32:43</t>
+  </si>
+  <si>
+    <t>20/11/2022 23:21:09</t>
+  </si>
+  <si>
+    <t>20/11/2022 11:06:10</t>
+  </si>
+  <si>
+    <t>19/11/2022 11:50:47</t>
+  </si>
+  <si>
+    <t>17/11/2022 09:38:52</t>
+  </si>
+  <si>
+    <t>16/11/2022 14:15:05</t>
+  </si>
+  <si>
+    <t>15/11/2022 20:46:11</t>
+  </si>
+  <si>
+    <t>15/11/2022 08:45:01</t>
+  </si>
+  <si>
+    <t>13/11/2022 10:14:00</t>
+  </si>
+  <si>
+    <t>11/11/2022 18:48:54</t>
+  </si>
+  <si>
+    <t>11/11/2022 10:02:49</t>
+  </si>
+  <si>
+    <t>11/11/2022 09:59:15</t>
+  </si>
+  <si>
+    <t>09/11/2022 22:12:02</t>
+  </si>
+  <si>
+    <t>09/11/2022 01:03:48</t>
+  </si>
+  <si>
+    <t>07/11/2022 21:35:26</t>
+  </si>
+  <si>
+    <t>07/11/2022 12:28:23</t>
+  </si>
+  <si>
+    <t>BAND602</t>
+  </si>
+  <si>
+    <t>http:/www.zapimoveis.com.br/imovel/imovel-id-2567791676, http://www.vivareal.com.br/imovel/vivapro-id-2567791676</t>
+  </si>
+  <si>
+    <t>05/11/2022 18:55:19</t>
+  </si>
+  <si>
+    <t>05/11/2022 12:01:06</t>
+  </si>
+  <si>
+    <t>05/11/2022 07:25:34</t>
+  </si>
+  <si>
+    <t>04/11/2022 18:05:26</t>
+  </si>
+  <si>
+    <t>04/11/2022 11:44:43</t>
+  </si>
+  <si>
+    <t>03/11/2022 23:23:43</t>
+  </si>
+  <si>
+    <t>03/11/2022 21:16:15</t>
+  </si>
+  <si>
+    <t>01/11/2022 22:08:50</t>
+  </si>
+  <si>
+    <t>01/11/2022 18:23:19</t>
+  </si>
+  <si>
+    <t>31/10/2022 22:26:10</t>
+  </si>
+  <si>
+    <t>31/10/2022 20:47:30</t>
+  </si>
+  <si>
+    <t>31/10/2022 17:15:05</t>
+  </si>
+  <si>
+    <t>31/10/2022 17:06:48</t>
+  </si>
+  <si>
+    <t>31/10/2022 13:58:09</t>
+  </si>
+  <si>
+    <t>30/10/2022 16:17:05</t>
+  </si>
+  <si>
+    <t>30/10/2022 15:50:05</t>
+  </si>
+  <si>
+    <t>30/10/2022 05:21:55</t>
+  </si>
+  <si>
+    <t>28/10/2022 18:37:53</t>
+  </si>
+  <si>
+    <t>28/10/2022 18:37:46</t>
+  </si>
+  <si>
+    <t>28/10/2022 17:50:08</t>
+  </si>
+  <si>
+    <t>28/10/2022 10:39:04</t>
+  </si>
+  <si>
+    <t>28/10/2022 08:03:58</t>
+  </si>
+  <si>
+    <t>28/10/2022 06:42:26</t>
+  </si>
+  <si>
+    <t>27/10/2022 14:07:14</t>
+  </si>
+  <si>
+    <t>26/10/2022 23:08:06</t>
+  </si>
+  <si>
+    <t>26/10/2022 18:46:08</t>
+  </si>
+  <si>
+    <t>26/10/2022 15:35:17</t>
+  </si>
+  <si>
+    <t>26/10/2022 13:20:46</t>
+  </si>
+  <si>
+    <t>26/10/2022 08:58:02</t>
+  </si>
+  <si>
+    <t>25/10/2022 09:41:26</t>
+  </si>
+  <si>
+    <t>24/10/2022 16:45:43</t>
+  </si>
+  <si>
+    <t>RJMEIER</t>
+  </si>
+  <si>
+    <t>http:/www.zapimoveis.com.br/imovel/imovel-id-2446438401, http://www.vivareal.com.br/imovel/vivapro-id-2446438401</t>
+  </si>
+  <si>
+    <t>23/10/2022 10:48:32</t>
+  </si>
+  <si>
+    <t>22/10/2022 22:19:23</t>
+  </si>
+  <si>
+    <t>22/10/2022 21:37:34</t>
+  </si>
+  <si>
+    <t>22/10/2022 12:21:07</t>
+  </si>
+  <si>
+    <t>22/10/2022 12:20:09</t>
+  </si>
+  <si>
+    <t>21/10/2022 11:54:35</t>
+  </si>
+  <si>
+    <t>21/10/2022 07:45:51</t>
+  </si>
+  <si>
+    <t>20/10/2022 17:19:49</t>
+  </si>
+  <si>
+    <t>20/10/2022 14:18:37</t>
+  </si>
+  <si>
+    <t>20/10/2022 14:14:22</t>
+  </si>
+  <si>
+    <t>19/10/2022 20:23:05</t>
+  </si>
+  <si>
+    <t>19/10/2022 11:48:37</t>
+  </si>
+  <si>
+    <t>18/10/2022 22:38:27</t>
+  </si>
+  <si>
+    <t>18/10/2022 22:26:12</t>
+  </si>
+  <si>
+    <t>18/10/2022 19:23:27</t>
+  </si>
+  <si>
+    <t>18/10/2022 15:58:32</t>
+  </si>
+  <si>
+    <t>18/10/2022 14:49:55</t>
+  </si>
+  <si>
+    <t>18/10/2022 08:21:29</t>
+  </si>
+  <si>
+    <t>17/10/2022 18:51:43</t>
+  </si>
+  <si>
+    <t>17/10/2022 15:42:39</t>
+  </si>
+  <si>
+    <t>17/10/2022 11:07:05</t>
+  </si>
+  <si>
+    <t>16/10/2022 22:24:23</t>
+  </si>
+  <si>
+    <t>16/10/2022 21:39:25</t>
+  </si>
+  <si>
+    <t>15/10/2022 21:31:49</t>
+  </si>
+  <si>
+    <t>15/10/2022 20:18:53</t>
+  </si>
+  <si>
+    <t>15/10/2022 15:54:07</t>
+  </si>
+  <si>
+    <t>14/10/2022 22:05:20</t>
+  </si>
+  <si>
+    <t>14/10/2022 14:39:15</t>
+  </si>
+  <si>
+    <t>14/10/2022 14:33:10</t>
+  </si>
+  <si>
+    <t>14/10/2022 13:51:47</t>
+  </si>
+  <si>
+    <t>13/10/2022 08:03:41</t>
+  </si>
+  <si>
+    <t>12/10/2022 20:25:43</t>
+  </si>
+  <si>
+    <t>12/10/2022 00:12:23</t>
+  </si>
+  <si>
+    <t>11/10/2022 18:14:04</t>
+  </si>
+  <si>
+    <t>11/10/2022 15:16:36</t>
+  </si>
+  <si>
+    <t>10/10/2022 17:08:15</t>
+  </si>
+  <si>
+    <t>10/10/2022 04:44:19</t>
+  </si>
+  <si>
+    <t>10/10/2022 00:28:14</t>
+  </si>
+  <si>
+    <t>10/10/2022 00:23:37</t>
   </si>
   <si>
     <t/>
@@ -116,7 +1163,13 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
@@ -125,13 +1178,7 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -436,24 +1483,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E321"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -471,8 +1518,8 @@
         <v>1</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="3">
@@ -480,22 +1527,5421 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="4">
+        <v>21966057457</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="4">
+        <v>41998115436</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="4">
+        <v>21971025518</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="4">
+        <v>11945044722</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5" t="s">
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="4">
+        <v>24992179568</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="4">
+        <v>21998520411</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="4">
+        <v>21967050550</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="4">
+        <v>21976170405</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="4">
+        <v>31971237878</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="4">
+        <v>31971237878</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="4">
+        <v>32984488556</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="4">
+        <v>21998591960</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="4">
+        <v>21996317730</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="4">
+        <v>21996317730</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="4">
+        <v>21996317730</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="4">
+        <v>21996317730</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="4">
+        <v>21990110779</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="4">
+        <v>21981405773</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="3">
+        <v>2</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="4">
+        <v>24998591976</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="4">
+        <v>21983669870</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="4">
+        <v>22998100243</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="4">
+        <v>11932587397</v>
+      </c>
+      <c r="B29" s="3">
+        <v>2</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="4">
+        <v>11932587397</v>
+      </c>
+      <c r="B30" s="3">
+        <v>2</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="3">
+        <v>2</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="4">
+        <v>71993712025</v>
+      </c>
+      <c r="B32" s="3">
+        <v>2</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="4">
+        <v>21980924186</v>
+      </c>
+      <c r="B33" s="3">
+        <v>2</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="4">
+        <v>21983416363</v>
+      </c>
+      <c r="B34" s="3">
+        <v>2</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="4">
+        <v>21996268692</v>
+      </c>
+      <c r="B35" s="3">
+        <v>2</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="4">
+        <v>21983416363</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="4">
+        <v>11998953303</v>
+      </c>
+      <c r="B37" s="3">
+        <v>2</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="4">
+        <v>11998953303</v>
+      </c>
+      <c r="B38" s="3">
+        <v>2</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="4">
+        <v>21997019172</v>
+      </c>
+      <c r="B39" s="3">
+        <v>2</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="4">
+        <v>21972291999</v>
+      </c>
+      <c r="B40" s="3">
+        <v>2</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="4">
+        <v>21982617395</v>
+      </c>
+      <c r="B41" s="3">
+        <v>2</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="4">
+        <v>21972291999</v>
+      </c>
+      <c r="B42" s="3">
+        <v>2</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="4">
+        <v>21993776448</v>
+      </c>
+      <c r="B43" s="3">
+        <v>2</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="3">
+        <v>2</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="A45" s="4">
+        <v>11994667095</v>
+      </c>
+      <c r="B45" s="3">
+        <v>2</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+      <c r="A46" s="4">
+        <v>92992952016</v>
+      </c>
+      <c r="B46" s="3">
+        <v>2</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+      <c r="A47" s="4">
+        <v>28999317175</v>
+      </c>
+      <c r="B47" s="3">
+        <v>2</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+      <c r="A48" s="4">
+        <v>21994981793</v>
+      </c>
+      <c r="B48" s="3">
+        <v>2</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+      <c r="A49" s="4">
+        <v>21994981793</v>
+      </c>
+      <c r="B49" s="3">
+        <v>2</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+      <c r="A50" s="4">
+        <v>21982528051</v>
+      </c>
+      <c r="B50" s="3">
+        <v>2</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="A51" s="4">
+        <v>21982528051</v>
+      </c>
+      <c r="B51" s="3">
+        <v>2</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="A52" s="4">
+        <v>92992952016</v>
+      </c>
+      <c r="B52" s="3">
+        <v>2</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+      <c r="A53" s="4">
+        <v>21983141023</v>
+      </c>
+      <c r="B53" s="3">
+        <v>2</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+      <c r="A54" s="4">
+        <v>21964251498</v>
+      </c>
+      <c r="B54" s="3">
+        <v>2</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+      <c r="A55" s="4">
+        <v>21964251498</v>
+      </c>
+      <c r="B55" s="3">
+        <v>2</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+      <c r="A56" s="4">
+        <v>21964251498</v>
+      </c>
+      <c r="B56" s="3">
+        <v>2</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+      <c r="A57" s="4">
+        <v>21964251498</v>
+      </c>
+      <c r="B57" s="3">
+        <v>2</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+      <c r="A58" s="4">
+        <v>24999305101</v>
+      </c>
+      <c r="B58" s="3">
+        <v>2</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+      <c r="A59" s="4">
+        <v>21965129722</v>
+      </c>
+      <c r="B59" s="3">
+        <v>2</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+      <c r="A60" s="4">
+        <v>21964036653</v>
+      </c>
+      <c r="B60" s="3">
+        <v>2</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+      <c r="A61" s="4">
+        <v>24974018815</v>
+      </c>
+      <c r="B61" s="3">
+        <v>2</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+      <c r="A62" s="4">
+        <v>27992536579</v>
+      </c>
+      <c r="B62" s="3">
+        <v>2</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+      <c r="A63" s="4">
+        <v>37999544420</v>
+      </c>
+      <c r="B63" s="3">
+        <v>2</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+      <c r="A64" s="4">
+        <v>37999544420</v>
+      </c>
+      <c r="B64" s="3">
+        <v>2</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+      <c r="A65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="3">
+        <v>2</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+      <c r="A66" s="4">
+        <v>19999359966</v>
+      </c>
+      <c r="B66" s="3">
+        <v>2</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+      <c r="A67" s="4">
+        <v>21981939968</v>
+      </c>
+      <c r="B67" s="3">
+        <v>2</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+      <c r="A68" s="4">
+        <v>21971360894</v>
+      </c>
+      <c r="B68" s="3">
+        <v>2</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+      <c r="A69" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="3">
+        <v>2</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+      <c r="A70" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="3">
+        <v>2</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+      <c r="A71" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="3">
+        <v>2</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+      <c r="A72" s="4">
+        <v>24999305101</v>
+      </c>
+      <c r="B72" s="3">
+        <v>2</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+      <c r="A73" s="4">
+        <v>21974584396</v>
+      </c>
+      <c r="B73" s="3">
+        <v>2</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+      <c r="A74" s="4">
+        <v>27992536579</v>
+      </c>
+      <c r="B74" s="3">
+        <v>2</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+      <c r="A75" s="4">
+        <v>21974485347</v>
+      </c>
+      <c r="B75" s="3">
+        <v>2</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+      <c r="A76" s="4">
+        <v>21979818652</v>
+      </c>
+      <c r="B76" s="3">
+        <v>2</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+      <c r="A77" s="4">
+        <v>21979818652</v>
+      </c>
+      <c r="B77" s="3">
+        <v>2</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+      <c r="A78" s="4">
+        <v>21971945558</v>
+      </c>
+      <c r="B78" s="3">
+        <v>2</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+      <c r="A79" s="4">
+        <v>21965955554</v>
+      </c>
+      <c r="B79" s="3">
+        <v>2</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+      <c r="A80" s="4">
+        <v>21979818652</v>
+      </c>
+      <c r="B80" s="3">
+        <v>2</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+      <c r="A81" s="4">
+        <v>21971945558</v>
+      </c>
+      <c r="B81" s="3">
+        <v>2</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+      <c r="A82" s="4">
+        <v>21998971059</v>
+      </c>
+      <c r="B82" s="3">
+        <v>2</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+      <c r="A83" s="4">
+        <v>21991657911</v>
+      </c>
+      <c r="B83" s="3">
+        <v>2</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+      <c r="A84" s="4">
+        <v>21998800051</v>
+      </c>
+      <c r="B84" s="3">
+        <v>2</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+      <c r="A85" s="4">
+        <v>21981121720</v>
+      </c>
+      <c r="B85" s="3">
+        <v>2</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+      <c r="A86" s="4">
+        <v>21978979054</v>
+      </c>
+      <c r="B86" s="3">
+        <v>2</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+      <c r="A87" s="4">
+        <v>21975991530</v>
+      </c>
+      <c r="B87" s="3">
+        <v>2</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+      <c r="A88" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" s="3">
+        <v>2</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+      <c r="A89" s="4">
+        <v>21999995037</v>
+      </c>
+      <c r="B89" s="3">
+        <v>2</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+      <c r="A90" s="4">
+        <v>71991527468</v>
+      </c>
+      <c r="B90" s="3">
+        <v>2</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+      <c r="A91" s="4">
+        <v>21991657911</v>
+      </c>
+      <c r="B91" s="3">
+        <v>2</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+      <c r="A92" s="4">
+        <v>21966618013</v>
+      </c>
+      <c r="B92" s="3">
+        <v>2</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+      <c r="A93" s="4">
+        <v>31984994195</v>
+      </c>
+      <c r="B93" s="3">
+        <v>2</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+      <c r="A94" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" s="3">
+        <v>2</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+      <c r="A95" s="4">
+        <v>21979038800</v>
+      </c>
+      <c r="B95" s="3">
+        <v>2</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+      <c r="A96" s="4">
+        <v>21996964938</v>
+      </c>
+      <c r="B96" s="3">
+        <v>2</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+      <c r="A97" s="4">
+        <v>21996964938</v>
+      </c>
+      <c r="B97" s="3">
+        <v>2</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+      <c r="A98" s="4">
+        <v>21996964938</v>
+      </c>
+      <c r="B98" s="3">
+        <v>2</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+      <c r="A99" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" s="3">
+        <v>2</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+      <c r="A100" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" s="3">
+        <v>2</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+      <c r="A101" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" s="3">
+        <v>2</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+      <c r="A102" s="4">
+        <v>21998126448</v>
+      </c>
+      <c r="B102" s="3">
+        <v>2</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
+      <c r="A103" s="4">
+        <v>21998126448</v>
+      </c>
+      <c r="B103" s="3">
+        <v>2</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
+      <c r="A104" s="4">
+        <v>21981624565</v>
+      </c>
+      <c r="B104" s="3">
+        <v>2</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+      <c r="A105" s="4">
+        <v>21981624565</v>
+      </c>
+      <c r="B105" s="3">
+        <v>2</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+      <c r="A106" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" s="3">
+        <v>2</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+      <c r="A107" s="4">
+        <v>21996964938</v>
+      </c>
+      <c r="B107" s="3">
+        <v>2</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
+      <c r="A108" s="4">
+        <v>21996964938</v>
+      </c>
+      <c r="B108" s="3">
+        <v>2</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
+      <c r="A109" s="4">
+        <v>21996964938</v>
+      </c>
+      <c r="B109" s="3">
+        <v>2</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
+      <c r="A110" s="4">
+        <v>21986240892</v>
+      </c>
+      <c r="B110" s="3">
+        <v>2</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
+      <c r="A111" s="4">
+        <v>21986240892</v>
+      </c>
+      <c r="B111" s="3">
+        <v>2</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
+      <c r="A112" s="4">
+        <v>21981882686</v>
+      </c>
+      <c r="B112" s="3">
+        <v>2</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
+      <c r="A113" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" s="3">
+        <v>2</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
+      <c r="A114" s="4">
+        <v>21965485332</v>
+      </c>
+      <c r="B114" s="3">
+        <v>2</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
+      <c r="A115" s="4">
+        <v>21981147722</v>
+      </c>
+      <c r="B115" s="3">
+        <v>2</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
+      <c r="A116" s="4">
+        <v>21983289349</v>
+      </c>
+      <c r="B116" s="3">
+        <v>2</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
+      <c r="A117" s="4">
+        <v>21986240892</v>
+      </c>
+      <c r="B117" s="3">
+        <v>2</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
+      <c r="A118" s="4">
+        <v>11987907961</v>
+      </c>
+      <c r="B118" s="3">
+        <v>2</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
+      <c r="A119" s="4">
+        <v>11987907961</v>
+      </c>
+      <c r="B119" s="3">
+        <v>2</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
+      <c r="A120" s="4">
+        <v>21983289349</v>
+      </c>
+      <c r="B120" s="3">
+        <v>2</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
+      <c r="A121" s="4">
+        <v>21995334031</v>
+      </c>
+      <c r="B121" s="3">
+        <v>2</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
+      <c r="A122" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" s="3">
+        <v>2</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
+      <c r="A123" s="4">
+        <v>21980728164</v>
+      </c>
+      <c r="B123" s="3">
+        <v>2</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
+      <c r="A124" s="4">
+        <v>21990530198</v>
+      </c>
+      <c r="B124" s="3">
+        <v>2</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
+      <c r="A125" s="4">
+        <v>21988002555</v>
+      </c>
+      <c r="B125" s="3">
+        <v>2</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
+      <c r="A126" s="4">
+        <v>21982169910</v>
+      </c>
+      <c r="B126" s="3">
+        <v>2</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
+      <c r="A127" s="4">
+        <v>21998043737</v>
+      </c>
+      <c r="B127" s="3">
+        <v>2</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
+      <c r="A128" s="4">
+        <v>21998308072</v>
+      </c>
+      <c r="B128" s="3">
+        <v>2</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
+      <c r="A129" s="4">
+        <v>21996272349</v>
+      </c>
+      <c r="B129" s="3">
+        <v>2</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
+      <c r="A130" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130" s="3">
+        <v>2</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
+      <c r="A131" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B131" s="3">
+        <v>2</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
+      <c r="A132" s="4">
+        <v>11985364995</v>
+      </c>
+      <c r="B132" s="3">
+        <v>2</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
+      <c r="A133" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B133" s="3">
+        <v>2</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
+      <c r="A134" s="4">
+        <v>21964251498</v>
+      </c>
+      <c r="B134" s="3">
+        <v>2</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
+      <c r="A135" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B135" s="3">
+        <v>2</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
+      <c r="A136" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B136" s="3">
+        <v>2</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
+      <c r="A137" s="4">
+        <v>22998519620</v>
+      </c>
+      <c r="B137" s="3">
+        <v>2</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
+      <c r="A138" s="4">
+        <v>22998519620</v>
+      </c>
+      <c r="B138" s="3">
+        <v>2</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
+      <c r="A139" s="4">
+        <v>21991844386</v>
+      </c>
+      <c r="B139" s="3">
+        <v>2</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
+      <c r="A140" s="4">
+        <v>61981866976</v>
+      </c>
+      <c r="B140" s="3">
+        <v>2</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
+      <c r="A141" s="4">
+        <v>21969870072</v>
+      </c>
+      <c r="B141" s="3">
+        <v>2</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
+      <c r="A142" s="4">
+        <v>51993429811</v>
+      </c>
+      <c r="B142" s="3">
+        <v>2</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
+      <c r="A143" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B143" s="3">
+        <v>2</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
+      <c r="A144" s="4">
+        <v>21981947669</v>
+      </c>
+      <c r="B144" s="3">
+        <v>2</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
+      <c r="A145" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B145" s="3">
+        <v>2</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
+      <c r="A146" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B146" s="3">
+        <v>2</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
+      <c r="A147" s="4">
+        <v>61981866976</v>
+      </c>
+      <c r="B147" s="3">
+        <v>2</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
+      <c r="A148" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B148" s="3">
+        <v>2</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
+      <c r="A149" s="4">
+        <v>21999021300</v>
+      </c>
+      <c r="B149" s="3">
+        <v>2</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
+      <c r="A150" s="4">
+        <v>21987040877</v>
+      </c>
+      <c r="B150" s="3">
+        <v>2</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
+      <c r="A151" s="4">
+        <v>11975430089</v>
+      </c>
+      <c r="B151" s="3">
+        <v>2</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
+      <c r="A152" s="4">
+        <v>21964251498</v>
+      </c>
+      <c r="B152" s="3">
+        <v>2</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
+      <c r="A153" s="4">
+        <v>21994864842</v>
+      </c>
+      <c r="B153" s="3">
+        <v>2</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
+      <c r="A154" s="4">
+        <v>22981495010</v>
+      </c>
+      <c r="B154" s="3">
+        <v>2</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
+      <c r="A155" s="4">
+        <v>21988099189</v>
+      </c>
+      <c r="B155" s="3">
+        <v>2</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
+      <c r="A156" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B156" s="3">
+        <v>2</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
+      <c r="A157" s="4">
+        <v>21989162807</v>
+      </c>
+      <c r="B157" s="3">
+        <v>2</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
+      <c r="A158" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B158" s="3">
+        <v>2</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
+      <c r="A159" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B159" s="3">
+        <v>2</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
+      <c r="A160" s="4">
+        <v>21999154271</v>
+      </c>
+      <c r="B160" s="3">
+        <v>2</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
+      <c r="A161" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B161" s="3">
+        <v>2</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
+      <c r="A162" s="4">
+        <v>21981222565</v>
+      </c>
+      <c r="B162" s="3">
+        <v>2</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
+      <c r="A163" s="4">
+        <v>21998199868</v>
+      </c>
+      <c r="B163" s="3">
+        <v>2</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
+      <c r="A164" s="4">
+        <v>21999981752</v>
+      </c>
+      <c r="B164" s="3">
+        <v>2</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
+      <c r="A165" s="4">
+        <v>21970019821</v>
+      </c>
+      <c r="B165" s="3">
+        <v>2</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
+      <c r="A166" s="4">
+        <v>21981938409</v>
+      </c>
+      <c r="B166" s="3">
+        <v>2</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
+      <c r="A167" s="4">
+        <v>21964226130</v>
+      </c>
+      <c r="B167" s="3">
+        <v>2</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
+      <c r="A168" s="4">
+        <v>21975492012</v>
+      </c>
+      <c r="B168" s="3">
+        <v>2</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
+      <c r="A169" s="4">
+        <v>21996110395</v>
+      </c>
+      <c r="B169" s="3">
+        <v>2</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
+      <c r="A170" s="4">
+        <v>21991782593</v>
+      </c>
+      <c r="B170" s="3">
+        <v>2</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
+      <c r="A171" s="4">
+        <v>11973258765</v>
+      </c>
+      <c r="B171" s="3">
+        <v>2</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
+      <c r="A172" s="4">
+        <v>22981104191</v>
+      </c>
+      <c r="B172" s="3">
+        <v>2</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
+      <c r="A173" s="4">
+        <v>21971777657</v>
+      </c>
+      <c r="B173" s="3">
+        <v>2</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
+      <c r="A174" s="4">
+        <v>21971777657</v>
+      </c>
+      <c r="B174" s="3">
+        <v>2</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
+      <c r="A175" s="4">
+        <v>21971274713</v>
+      </c>
+      <c r="B175" s="3">
+        <v>2</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
+      <c r="A176" s="4">
+        <v>21964711508</v>
+      </c>
+      <c r="B176" s="3">
+        <v>2</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
+      <c r="A177" s="4">
+        <v>21999937776</v>
+      </c>
+      <c r="B177" s="3">
+        <v>2</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
+      <c r="A178" s="4">
+        <v>21964711508</v>
+      </c>
+      <c r="B178" s="3">
+        <v>2</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
+      <c r="A179" s="4">
+        <v>21997737766</v>
+      </c>
+      <c r="B179" s="3">
+        <v>2</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
+      <c r="A180" s="4">
+        <v>19974179289</v>
+      </c>
+      <c r="B180" s="3">
+        <v>2</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
+      <c r="A181" s="4">
+        <v>21993795890</v>
+      </c>
+      <c r="B181" s="3">
+        <v>2</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
+      <c r="A182" s="4">
+        <v>22998133019</v>
+      </c>
+      <c r="B182" s="3">
+        <v>2</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
+      <c r="A183" s="4">
+        <v>67992811515</v>
+      </c>
+      <c r="B183" s="3">
+        <v>2</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
+      <c r="A184" s="4">
+        <v>22998133019</v>
+      </c>
+      <c r="B184" s="3">
+        <v>2</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
+      <c r="A185" s="4">
+        <v>22998133019</v>
+      </c>
+      <c r="B185" s="3">
+        <v>2</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
+      <c r="A186" s="4">
+        <v>22998133019</v>
+      </c>
+      <c r="B186" s="3">
+        <v>2</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
+      <c r="A187" s="4">
+        <v>22998133019</v>
+      </c>
+      <c r="B187" s="3">
+        <v>2</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
+      <c r="A188" s="4">
+        <v>67992811515</v>
+      </c>
+      <c r="B188" s="3">
+        <v>2</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
+      <c r="A189" s="4">
+        <v>21994120906</v>
+      </c>
+      <c r="B189" s="3">
+        <v>2</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
+      <c r="A190" s="4">
+        <v>21994120906</v>
+      </c>
+      <c r="B190" s="3">
+        <v>2</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D190" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
+      <c r="A191" s="4">
+        <v>21994120906</v>
+      </c>
+      <c r="B191" s="3">
+        <v>2</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
+      <c r="A192" s="4">
+        <v>21994120906</v>
+      </c>
+      <c r="B192" s="3">
+        <v>2</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
+      <c r="A193" s="4">
+        <v>22998133019</v>
+      </c>
+      <c r="B193" s="3">
+        <v>2</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
+      <c r="A194" s="4">
+        <v>22998133019</v>
+      </c>
+      <c r="B194" s="3">
+        <v>2</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
+      <c r="A195" s="4">
+        <v>21964226130</v>
+      </c>
+      <c r="B195" s="3">
+        <v>2</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
+      <c r="A196" s="4">
+        <v>21964226130</v>
+      </c>
+      <c r="B196" s="3">
+        <v>2</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
+      <c r="A197" s="4">
+        <v>21973180467</v>
+      </c>
+      <c r="B197" s="3">
+        <v>2</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
+      <c r="A198" s="4">
+        <v>21970840619</v>
+      </c>
+      <c r="B198" s="3">
+        <v>2</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
+      <c r="A199" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B199" s="3">
+        <v>2</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
+      <c r="A200" s="4">
+        <v>21994120906</v>
+      </c>
+      <c r="B200" s="3">
+        <v>2</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E200" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
+      <c r="A201" s="4">
+        <v>21986169192</v>
+      </c>
+      <c r="B201" s="3">
+        <v>2</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D201" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
+      <c r="A202" s="4">
+        <v>21972224781</v>
+      </c>
+      <c r="B202" s="3">
+        <v>2</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E202" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
+      <c r="A203" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B203" s="3">
+        <v>2</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E203" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
+      <c r="A204" s="4">
+        <v>21970042868</v>
+      </c>
+      <c r="B204" s="3">
+        <v>2</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E204" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
+      <c r="A205" s="4">
+        <v>21996990230</v>
+      </c>
+      <c r="B205" s="3">
+        <v>2</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E205" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
+      <c r="A206" s="4">
+        <v>21997185403</v>
+      </c>
+      <c r="B206" s="3">
+        <v>2</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E206" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
+      <c r="A207" s="4">
+        <v>21991124409</v>
+      </c>
+      <c r="B207" s="3">
+        <v>2</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E207" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
+      <c r="A208" s="4">
+        <v>21986462002</v>
+      </c>
+      <c r="B208" s="3">
+        <v>2</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E208" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
+      <c r="A209" s="4">
+        <v>21986462002</v>
+      </c>
+      <c r="B209" s="3">
+        <v>2</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E209" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
+      <c r="A210" s="4">
+        <v>21965611180</v>
+      </c>
+      <c r="B210" s="3">
+        <v>2</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E210" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
+      <c r="A211" s="4">
+        <v>21995866957</v>
+      </c>
+      <c r="B211" s="3">
+        <v>2</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D211" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E211" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
+      <c r="A212" s="4">
+        <v>21997093857</v>
+      </c>
+      <c r="B212" s="3">
+        <v>2</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D212" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
+      <c r="A213" s="4">
+        <v>21991191950</v>
+      </c>
+      <c r="B213" s="3">
+        <v>2</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D213" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
+      <c r="A214" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B214" s="3">
+        <v>2</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
+      <c r="A215" s="4">
+        <v>21999547529</v>
+      </c>
+      <c r="B215" s="3">
+        <v>2</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D215" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
+      <c r="A216" s="4">
+        <v>21965531603</v>
+      </c>
+      <c r="B216" s="3">
+        <v>2</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E216" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
+      <c r="A217" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B217" s="3">
+        <v>2</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E217" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
+      <c r="A218" s="4">
+        <v>21998808758</v>
+      </c>
+      <c r="B218" s="3">
+        <v>2</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
+      <c r="A219" s="4">
+        <v>21998808758</v>
+      </c>
+      <c r="B219" s="3">
+        <v>2</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D219" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E219" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
+      <c r="A220" s="4">
+        <v>21994375918</v>
+      </c>
+      <c r="B220" s="3">
+        <v>2</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D220" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E220" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
+      <c r="A221" s="4">
+        <v>21990116083</v>
+      </c>
+      <c r="B221" s="3">
+        <v>2</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D221" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
+      <c r="A222" s="4">
+        <v>31991075842</v>
+      </c>
+      <c r="B222" s="3">
+        <v>2</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
+      <c r="A223" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B223" s="3">
+        <v>2</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D223" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E223" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
+      <c r="A224" s="4">
+        <v>21973368020</v>
+      </c>
+      <c r="B224" s="3">
+        <v>2</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D224" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E224" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
+      <c r="A225" s="4">
+        <v>11974450391</v>
+      </c>
+      <c r="B225" s="3">
+        <v>2</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D225" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E225" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
+      <c r="A226" s="4">
+        <v>13974214886</v>
+      </c>
+      <c r="B226" s="3">
+        <v>2</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D226" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E226" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
+      <c r="A227" s="4">
+        <v>21976732806</v>
+      </c>
+      <c r="B227" s="3">
+        <v>2</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D227" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
+      <c r="A228" s="4">
+        <v>21986463936</v>
+      </c>
+      <c r="B228" s="3">
+        <v>2</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D228" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E228" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
+      <c r="A229" s="4">
+        <v>21986463936</v>
+      </c>
+      <c r="B229" s="3">
+        <v>2</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D229" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E229" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
+      <c r="A230" s="4">
+        <v>21982889389</v>
+      </c>
+      <c r="B230" s="3">
+        <v>2</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D230" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E230" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
+      <c r="A231" s="4">
+        <v>21982889389</v>
+      </c>
+      <c r="B231" s="3">
+        <v>2</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D231" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E231" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
+      <c r="A232" s="4">
+        <v>21982889389</v>
+      </c>
+      <c r="B232" s="3">
+        <v>2</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D232" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E232" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
+      <c r="A233" s="4">
+        <v>21982889389</v>
+      </c>
+      <c r="B233" s="3">
+        <v>2</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D233" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E233" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
+      <c r="A234" s="4">
+        <v>21989580842</v>
+      </c>
+      <c r="B234" s="3">
+        <v>2</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D234" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E234" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
+      <c r="A235" s="4">
+        <v>21964304940</v>
+      </c>
+      <c r="B235" s="3">
+        <v>2</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D235" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E235" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
+      <c r="A236" s="4">
+        <v>21980367961</v>
+      </c>
+      <c r="B236" s="3">
+        <v>2</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D236" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E236" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
+      <c r="A237" s="4">
+        <v>21986462002</v>
+      </c>
+      <c r="B237" s="3">
+        <v>2</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D237" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E237" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
+      <c r="A238" s="4">
+        <v>21964304940</v>
+      </c>
+      <c r="B238" s="3">
+        <v>2</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D238" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E238" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
+      <c r="A239" s="4">
+        <v>21987697121</v>
+      </c>
+      <c r="B239" s="3">
+        <v>2</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D239" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E239" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
+      <c r="A240" s="4">
+        <v>21997778473</v>
+      </c>
+      <c r="B240" s="3">
+        <v>2</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D240" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E240" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
+      <c r="A241" s="4">
+        <v>21997093857</v>
+      </c>
+      <c r="B241" s="3">
+        <v>2</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D241" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E241" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
+      <c r="A242" s="4">
+        <v>21966417991</v>
+      </c>
+      <c r="B242" s="3">
+        <v>2</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D242" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E242" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
+      <c r="A243" s="4">
+        <v>11967573011</v>
+      </c>
+      <c r="B243" s="3">
+        <v>2</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D243" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E243" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
+      <c r="A244" s="4">
+        <v>21983618535</v>
+      </c>
+      <c r="B244" s="3">
+        <v>2</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D244" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E244" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75">
+      <c r="A245" s="4">
+        <v>21991745778</v>
+      </c>
+      <c r="B245" s="3">
+        <v>2</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D245" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E245" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
+      <c r="A246" s="4">
+        <v>21991745778</v>
+      </c>
+      <c r="B246" s="3">
+        <v>2</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D246" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E246" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
+      <c r="A247" s="4">
+        <v>21992871155</v>
+      </c>
+      <c r="B247" s="3">
+        <v>2</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D247" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E247" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
+      <c r="A248" s="4">
+        <v>21964213178</v>
+      </c>
+      <c r="B248" s="3">
+        <v>2</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D248" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E248" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75">
+      <c r="A249" s="4">
+        <v>2132816843</v>
+      </c>
+      <c r="B249" s="3">
+        <v>2</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D249" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E249" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75">
+      <c r="A250" s="4">
+        <v>21974305509</v>
+      </c>
+      <c r="B250" s="3">
+        <v>2</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D250" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E250" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75">
+      <c r="A251" s="4">
+        <v>21980886728</v>
+      </c>
+      <c r="B251" s="3">
+        <v>2</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D251" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E251" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
+      <c r="A252" s="4">
+        <v>21969552490</v>
+      </c>
+      <c r="B252" s="3">
+        <v>2</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D252" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E252" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75">
+      <c r="A253" s="4">
+        <v>21997093857</v>
+      </c>
+      <c r="B253" s="3">
+        <v>2</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D253" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E253" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
+      <c r="A254" s="4">
+        <v>21999947126</v>
+      </c>
+      <c r="B254" s="3">
+        <v>2</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D254" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E254" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
+      <c r="A255" s="4">
+        <v>24981249555</v>
+      </c>
+      <c r="B255" s="3">
+        <v>2</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D255" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E255" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75">
+      <c r="A256" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B256" s="3">
+        <v>2</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D256" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E256" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
+      <c r="A257" s="4">
+        <v>21975355330</v>
+      </c>
+      <c r="B257" s="3">
+        <v>2</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D257" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E257" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75">
+      <c r="A258" s="4">
+        <v>21964542009</v>
+      </c>
+      <c r="B258" s="3">
+        <v>2</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D258" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E258" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75">
+      <c r="A259" s="4">
+        <v>21991679316</v>
+      </c>
+      <c r="B259" s="3">
+        <v>2</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D259" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E259" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75">
+      <c r="A260" s="4">
+        <v>21996215900</v>
+      </c>
+      <c r="B260" s="3">
+        <v>2</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D260" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E260" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75">
+      <c r="A261" s="4">
+        <v>21993524729</v>
+      </c>
+      <c r="B261" s="3">
+        <v>2</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D261" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E261" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75">
+      <c r="A262" s="4">
+        <v>21999947126</v>
+      </c>
+      <c r="B262" s="3">
+        <v>2</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D262" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E262" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75">
+      <c r="A263" s="4">
+        <v>21964369786</v>
+      </c>
+      <c r="B263" s="3">
+        <v>2</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D263" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E263" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75">
+      <c r="A264" s="4">
+        <v>21988830515</v>
+      </c>
+      <c r="B264" s="3">
+        <v>2</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D264" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E264" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75">
+      <c r="A265" s="4">
+        <v>21988931987</v>
+      </c>
+      <c r="B265" s="3">
+        <v>2</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D265" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E265" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75">
+      <c r="A266" s="4">
+        <v>21988931987</v>
+      </c>
+      <c r="B266" s="3">
+        <v>2</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D266" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E266" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75">
+      <c r="A267" s="4">
+        <v>21988931987</v>
+      </c>
+      <c r="B267" s="3">
+        <v>2</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D267" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E267" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75">
+      <c r="A268" s="4">
+        <v>21999551725</v>
+      </c>
+      <c r="B268" s="3">
+        <v>2</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D268" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E268" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75">
+      <c r="A269" s="4">
+        <v>21999551725</v>
+      </c>
+      <c r="B269" s="3">
+        <v>2</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D269" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E269" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75">
+      <c r="A270" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B270" s="3">
+        <v>2</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D270" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E270" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75">
+      <c r="A271" s="4">
+        <v>21999832214</v>
+      </c>
+      <c r="B271" s="3">
+        <v>2</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D271" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E271" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75">
+      <c r="A272" s="4">
+        <v>21998149950</v>
+      </c>
+      <c r="B272" s="3">
+        <v>2</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D272" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E272" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18.75">
+      <c r="A273" s="4">
+        <v>21998149950</v>
+      </c>
+      <c r="B273" s="3">
+        <v>2</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D273" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E273" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75">
+      <c r="A274" s="4">
+        <v>21995538900</v>
+      </c>
+      <c r="B274" s="3">
+        <v>2</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D274" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E274" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75">
+      <c r="A275" s="4">
+        <v>21964369786</v>
+      </c>
+      <c r="B275" s="3">
+        <v>2</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D275" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E275" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75">
+      <c r="A276" s="4">
+        <v>21999839252</v>
+      </c>
+      <c r="B276" s="3">
+        <v>2</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D276" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E276" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75">
+      <c r="A277" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B277" s="3">
+        <v>2</v>
+      </c>
+      <c r="C277" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D277" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E277" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18.75">
+      <c r="A278" s="4">
+        <v>21983435324</v>
+      </c>
+      <c r="B278" s="3">
+        <v>2</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D278" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E278" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18.75">
+      <c r="A279" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B279" s="3">
+        <v>2</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D279" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E279" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18.75">
+      <c r="A280" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B280" s="3">
+        <v>2</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D280" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E280" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18.75">
+      <c r="A281" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B281" s="3">
+        <v>2</v>
+      </c>
+      <c r="C281" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D281" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E281" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18.75">
+      <c r="A282" s="4">
+        <v>42988722849</v>
+      </c>
+      <c r="B282" s="3">
+        <v>2</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D282" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E282" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18.75">
+      <c r="A283" s="4">
+        <v>21964406473</v>
+      </c>
+      <c r="B283" s="3">
+        <v>2</v>
+      </c>
+      <c r="C283" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D283" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E283" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18.75">
+      <c r="A284" s="4">
+        <v>21964406473</v>
+      </c>
+      <c r="B284" s="3">
+        <v>2</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D284" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E284" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18.75">
+      <c r="A285" s="4">
+        <v>21964136358</v>
+      </c>
+      <c r="B285" s="3">
+        <v>2</v>
+      </c>
+      <c r="C285" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D285" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E285" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18.75">
+      <c r="A286" s="4">
+        <v>21964136358</v>
+      </c>
+      <c r="B286" s="3">
+        <v>2</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D286" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E286" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="18.75">
+      <c r="A287" s="4">
+        <v>21965861405</v>
+      </c>
+      <c r="B287" s="3">
+        <v>2</v>
+      </c>
+      <c r="C287" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D287" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E287" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="18.75">
+      <c r="A288" s="4">
+        <v>31987884578</v>
+      </c>
+      <c r="B288" s="3">
+        <v>2</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D288" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E288" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="18.75">
+      <c r="A289" s="4">
+        <v>21964369786</v>
+      </c>
+      <c r="B289" s="3">
+        <v>2</v>
+      </c>
+      <c r="C289" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D289" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E289" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="18.75">
+      <c r="A290" s="4">
+        <v>21983462619</v>
+      </c>
+      <c r="B290" s="3">
+        <v>2</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D290" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E290" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="18.75">
+      <c r="A291" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B291" s="3">
+        <v>2</v>
+      </c>
+      <c r="C291" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D291" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E291" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="18.75">
+      <c r="A292" s="4">
+        <v>21995465510</v>
+      </c>
+      <c r="B292" s="3">
+        <v>2</v>
+      </c>
+      <c r="C292" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D292" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E292" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="18.75">
+      <c r="A293" s="4">
+        <v>21975322530</v>
+      </c>
+      <c r="B293" s="3">
+        <v>2</v>
+      </c>
+      <c r="C293" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D293" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E293" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="18.75">
+      <c r="A294" s="4">
+        <v>81996566851</v>
+      </c>
+      <c r="B294" s="3">
+        <v>2</v>
+      </c>
+      <c r="C294" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="D294" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E294" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="18.75">
+      <c r="A295" s="4">
+        <v>91987441490</v>
+      </c>
+      <c r="B295" s="3">
+        <v>2</v>
+      </c>
+      <c r="C295" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D295" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E295" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="18.75">
+      <c r="A296" s="4">
+        <v>21976656043</v>
+      </c>
+      <c r="B296" s="3">
+        <v>2</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="D296" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E296" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="18.75">
+      <c r="A297" s="4">
+        <v>21990210252</v>
+      </c>
+      <c r="B297" s="3">
+        <v>2</v>
+      </c>
+      <c r="C297" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D297" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E297" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="18.75">
+      <c r="A298" s="4">
+        <v>24994328102</v>
+      </c>
+      <c r="B298" s="3">
+        <v>2</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D298" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E298" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="18.75">
+      <c r="A299" s="4">
+        <v>44999648869</v>
+      </c>
+      <c r="B299" s="3">
+        <v>2</v>
+      </c>
+      <c r="C299" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="D299" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E299" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="18.75">
+      <c r="A300" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B300" s="3">
+        <v>2</v>
+      </c>
+      <c r="C300" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D300" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E300" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="18.75">
+      <c r="A301" s="4">
+        <v>21980202098</v>
+      </c>
+      <c r="B301" s="3">
+        <v>2</v>
+      </c>
+      <c r="C301" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="D301" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E301" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="18.75">
+      <c r="A302" s="4">
+        <v>21998013992</v>
+      </c>
+      <c r="B302" s="3">
+        <v>2</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D302" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E302" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="18.75">
+      <c r="A303" s="4">
+        <v>21971825122</v>
+      </c>
+      <c r="B303" s="3">
+        <v>2</v>
+      </c>
+      <c r="C303" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D303" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E303" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="18.75">
+      <c r="A304" s="4">
+        <v>21976999970</v>
+      </c>
+      <c r="B304" s="3">
+        <v>2</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D304" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E304" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="18.75">
+      <c r="A305" s="4">
+        <v>21982619775</v>
+      </c>
+      <c r="B305" s="3">
+        <v>2</v>
+      </c>
+      <c r="C305" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D305" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E305" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="18.75">
+      <c r="A306" s="4">
+        <v>21972279669</v>
+      </c>
+      <c r="B306" s="3">
+        <v>2</v>
+      </c>
+      <c r="C306" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D306" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E306" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="18.75">
+      <c r="A307" s="4">
+        <v>21994418805</v>
+      </c>
+      <c r="B307" s="3">
+        <v>2</v>
+      </c>
+      <c r="C307" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D307" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E307" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="18.75">
+      <c r="A308" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B308" s="3">
+        <v>2</v>
+      </c>
+      <c r="C308" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D308" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E308" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="18.75">
+      <c r="A309" s="4">
+        <v>21972279669</v>
+      </c>
+      <c r="B309" s="3">
+        <v>2</v>
+      </c>
+      <c r="C309" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D309" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E309" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="18.75">
+      <c r="A310" s="4">
+        <v>21964242596</v>
+      </c>
+      <c r="B310" s="3">
+        <v>2</v>
+      </c>
+      <c r="C310" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D310" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E310" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="18.75">
+      <c r="A311" s="4">
+        <v>21996435634</v>
+      </c>
+      <c r="B311" s="3">
+        <v>2</v>
+      </c>
+      <c r="C311" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D311" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E311" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="18.75">
+      <c r="A312" s="4">
+        <v>21999296867</v>
+      </c>
+      <c r="B312" s="3">
+        <v>2</v>
+      </c>
+      <c r="C312" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D312" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E312" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="18.75">
+      <c r="A313" s="4">
+        <v>21995538900</v>
+      </c>
+      <c r="B313" s="3">
+        <v>2</v>
+      </c>
+      <c r="C313" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D313" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E313" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="18.75">
+      <c r="A314" s="4">
+        <v>82999952848</v>
+      </c>
+      <c r="B314" s="3">
+        <v>2</v>
+      </c>
+      <c r="C314" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="D314" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E314" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="18.75">
+      <c r="A315" s="4">
+        <v>21964588612</v>
+      </c>
+      <c r="B315" s="3">
+        <v>2</v>
+      </c>
+      <c r="C315" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="D315" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E315" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="18.75">
+      <c r="A316" s="4">
+        <v>21966650865</v>
+      </c>
+      <c r="B316" s="3">
+        <v>2</v>
+      </c>
+      <c r="C316" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="D316" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E316" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="18.75">
+      <c r="A317" s="4">
+        <v>21988765838</v>
+      </c>
+      <c r="B317" s="3">
+        <v>2</v>
+      </c>
+      <c r="C317" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="D317" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E317" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="18.75">
+      <c r="A318" s="4">
+        <v>82999952848</v>
+      </c>
+      <c r="B318" s="3">
+        <v>2</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="D318" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E318" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="18.75">
+      <c r="A319" s="4">
+        <v>21995538900</v>
+      </c>
+      <c r="B319" s="3">
+        <v>2</v>
+      </c>
+      <c r="C319" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D319" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E319" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="18.75">
+      <c r="A320" s="4">
+        <v>21995538900</v>
+      </c>
+      <c r="B320" s="3">
+        <v>2</v>
+      </c>
+      <c r="C320" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D320" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E320" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="18.75">
+      <c r="A321" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="B321" s="4"/>
+      <c r="C321" s="5"/>
+      <c r="D321" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="E321" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/contatos_checados.xlsx
+++ b/contatos_checados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E322"/>
+  <dimension ref="A1:E323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7889,23 +7889,36 @@
       <c r="C321" t="inlineStr"/>
       <c r="D321" t="inlineStr">
         <is>
-          <t>GOLDEN29</t>
+          <t>GOLDEN26</t>
         </is>
       </c>
       <c r="E321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>21992193853</v>
+        <v>21991720066</v>
       </c>
       <c r="B322" t="inlineStr"/>
       <c r="C322" t="inlineStr"/>
       <c r="D322" t="inlineStr">
         <is>
+          <t>GOLDEN29</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>21992193853</v>
+      </c>
+      <c r="B323" t="inlineStr"/>
+      <c r="C323" t="inlineStr"/>
+      <c r="D323" t="inlineStr">
+        <is>
           <t>GOLDEN26</t>
         </is>
       </c>
-      <c r="E322" t="inlineStr"/>
+      <c r="E323" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/contatos_checados.xlsx
+++ b/contatos_checados.xlsx
@@ -7883,7 +7883,7 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>21992193853</v>
+        <v>21966652864</v>
       </c>
       <c r="B321" t="inlineStr"/>
       <c r="C321" t="inlineStr"/>
@@ -7896,7 +7896,7 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>21992193853</v>
+        <v>21966652864</v>
       </c>
       <c r="B322" t="inlineStr"/>
       <c r="C322" t="inlineStr"/>

--- a/contatos_checados.xlsx
+++ b/contatos_checados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E524"/>
+  <dimension ref="A1:E762"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7002,10 +7002,8 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>21999408186</t>
-        </is>
+      <c r="A283" t="n">
+        <v>21999408186</v>
       </c>
       <c r="B283" t="inlineStr"/>
       <c r="C283" t="inlineStr"/>
@@ -7021,10 +7019,8 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>21966057457</t>
-        </is>
+      <c r="A284" t="n">
+        <v>21966057457</v>
       </c>
       <c r="B284" t="inlineStr"/>
       <c r="C284" t="inlineStr"/>
@@ -7040,10 +7036,8 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>41998115436</t>
-        </is>
+      <c r="A285" t="n">
+        <v>41998115436</v>
       </c>
       <c r="B285" t="inlineStr"/>
       <c r="C285" t="inlineStr"/>
@@ -7059,10 +7053,8 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>21971025518</t>
-        </is>
+      <c r="A286" t="n">
+        <v>21971025518</v>
       </c>
       <c r="B286" t="inlineStr"/>
       <c r="C286" t="inlineStr"/>
@@ -7078,10 +7070,8 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>11945044722</t>
-        </is>
+      <c r="A287" t="n">
+        <v>11945044722</v>
       </c>
       <c r="B287" t="inlineStr"/>
       <c r="C287" t="inlineStr"/>
@@ -7097,10 +7087,8 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>24992179568</t>
-        </is>
+      <c r="A288" t="n">
+        <v>24992179568</v>
       </c>
       <c r="B288" t="inlineStr"/>
       <c r="C288" t="inlineStr"/>
@@ -7116,10 +7104,8 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>21998520411</t>
-        </is>
+      <c r="A289" t="n">
+        <v>21998520411</v>
       </c>
       <c r="B289" t="inlineStr"/>
       <c r="C289" t="inlineStr"/>
@@ -7135,10 +7121,8 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>21967050550</t>
-        </is>
+      <c r="A290" t="n">
+        <v>21967050550</v>
       </c>
       <c r="B290" t="inlineStr"/>
       <c r="C290" t="inlineStr"/>
@@ -7154,10 +7138,8 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>21976170405</t>
-        </is>
+      <c r="A291" t="n">
+        <v>21976170405</v>
       </c>
       <c r="B291" t="inlineStr"/>
       <c r="C291" t="inlineStr"/>
@@ -7173,10 +7155,8 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>31971237878</t>
-        </is>
+      <c r="A292" t="n">
+        <v>31971237878</v>
       </c>
       <c r="B292" t="inlineStr"/>
       <c r="C292" t="inlineStr"/>
@@ -7192,10 +7172,8 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>31971237878</t>
-        </is>
+      <c r="A293" t="n">
+        <v>31971237878</v>
       </c>
       <c r="B293" t="inlineStr"/>
       <c r="C293" t="inlineStr"/>
@@ -7211,10 +7189,8 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>32984488556</t>
-        </is>
+      <c r="A294" t="n">
+        <v>32984488556</v>
       </c>
       <c r="B294" t="inlineStr"/>
       <c r="C294" t="inlineStr"/>
@@ -7230,10 +7206,8 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>21998591960</t>
-        </is>
+      <c r="A295" t="n">
+        <v>21998591960</v>
       </c>
       <c r="B295" t="inlineStr"/>
       <c r="C295" t="inlineStr"/>
@@ -7249,10 +7223,8 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>21996317730</t>
-        </is>
+      <c r="A296" t="n">
+        <v>21996317730</v>
       </c>
       <c r="B296" t="inlineStr"/>
       <c r="C296" t="inlineStr"/>
@@ -7268,10 +7240,8 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>21996317730</t>
-        </is>
+      <c r="A297" t="n">
+        <v>21996317730</v>
       </c>
       <c r="B297" t="inlineStr"/>
       <c r="C297" t="inlineStr"/>
@@ -7287,10 +7257,8 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>21996317730</t>
-        </is>
+      <c r="A298" t="n">
+        <v>21996317730</v>
       </c>
       <c r="B298" t="inlineStr"/>
       <c r="C298" t="inlineStr"/>
@@ -7306,10 +7274,8 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>21996317730</t>
-        </is>
+      <c r="A299" t="n">
+        <v>21996317730</v>
       </c>
       <c r="B299" t="inlineStr"/>
       <c r="C299" t="inlineStr"/>
@@ -7325,10 +7291,8 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>21990110779</t>
-        </is>
+      <c r="A300" t="n">
+        <v>21990110779</v>
       </c>
       <c r="B300" t="inlineStr"/>
       <c r="C300" t="inlineStr"/>
@@ -7344,10 +7308,8 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>21981405773</t>
-        </is>
+      <c r="A301" t="n">
+        <v>21981405773</v>
       </c>
       <c r="B301" t="inlineStr"/>
       <c r="C301" t="inlineStr"/>
@@ -7363,10 +7325,8 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>24998591976</t>
-        </is>
+      <c r="A302" t="n">
+        <v>24998591976</v>
       </c>
       <c r="B302" t="inlineStr"/>
       <c r="C302" t="inlineStr"/>
@@ -7382,10 +7342,8 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>21983669870</t>
-        </is>
+      <c r="A303" t="n">
+        <v>21983669870</v>
       </c>
       <c r="B303" t="inlineStr"/>
       <c r="C303" t="inlineStr"/>
@@ -7401,10 +7359,8 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>22998100243</t>
-        </is>
+      <c r="A304" t="n">
+        <v>22998100243</v>
       </c>
       <c r="B304" t="inlineStr"/>
       <c r="C304" t="inlineStr"/>
@@ -7420,10 +7376,8 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>11932587397</t>
-        </is>
+      <c r="A305" t="n">
+        <v>11932587397</v>
       </c>
       <c r="B305" t="inlineStr"/>
       <c r="C305" t="inlineStr"/>
@@ -7439,10 +7393,8 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>11932587397</t>
-        </is>
+      <c r="A306" t="n">
+        <v>11932587397</v>
       </c>
       <c r="B306" t="inlineStr"/>
       <c r="C306" t="inlineStr"/>
@@ -7458,10 +7410,8 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>71993712025</t>
-        </is>
+      <c r="A307" t="n">
+        <v>71993712025</v>
       </c>
       <c r="B307" t="inlineStr"/>
       <c r="C307" t="inlineStr"/>
@@ -7477,10 +7427,8 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>21980924186</t>
-        </is>
+      <c r="A308" t="n">
+        <v>21980924186</v>
       </c>
       <c r="B308" t="inlineStr"/>
       <c r="C308" t="inlineStr"/>
@@ -7496,10 +7444,8 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>21983416363</t>
-        </is>
+      <c r="A309" t="n">
+        <v>21983416363</v>
       </c>
       <c r="B309" t="inlineStr"/>
       <c r="C309" t="inlineStr"/>
@@ -7515,10 +7461,8 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>21996268692</t>
-        </is>
+      <c r="A310" t="n">
+        <v>21996268692</v>
       </c>
       <c r="B310" t="inlineStr"/>
       <c r="C310" t="inlineStr"/>
@@ -7534,10 +7478,8 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>21983416363</t>
-        </is>
+      <c r="A311" t="n">
+        <v>21983416363</v>
       </c>
       <c r="B311" t="inlineStr"/>
       <c r="C311" t="inlineStr"/>
@@ -7553,10 +7495,8 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>11998953303</t>
-        </is>
+      <c r="A312" t="n">
+        <v>11998953303</v>
       </c>
       <c r="B312" t="inlineStr"/>
       <c r="C312" t="inlineStr"/>
@@ -7572,10 +7512,8 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>11998953303</t>
-        </is>
+      <c r="A313" t="n">
+        <v>11998953303</v>
       </c>
       <c r="B313" t="inlineStr"/>
       <c r="C313" t="inlineStr"/>
@@ -7591,10 +7529,8 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>21997019172</t>
-        </is>
+      <c r="A314" t="n">
+        <v>21997019172</v>
       </c>
       <c r="B314" t="inlineStr"/>
       <c r="C314" t="inlineStr"/>
@@ -7610,10 +7546,8 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>21972291999</t>
-        </is>
+      <c r="A315" t="n">
+        <v>21972291999</v>
       </c>
       <c r="B315" t="inlineStr"/>
       <c r="C315" t="inlineStr"/>
@@ -7629,10 +7563,8 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>21982617395</t>
-        </is>
+      <c r="A316" t="n">
+        <v>21982617395</v>
       </c>
       <c r="B316" t="inlineStr"/>
       <c r="C316" t="inlineStr"/>
@@ -7648,10 +7580,8 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>21972291999</t>
-        </is>
+      <c r="A317" t="n">
+        <v>21972291999</v>
       </c>
       <c r="B317" t="inlineStr"/>
       <c r="C317" t="inlineStr"/>
@@ -7667,10 +7597,8 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>21993776448</t>
-        </is>
+      <c r="A318" t="n">
+        <v>21993776448</v>
       </c>
       <c r="B318" t="inlineStr"/>
       <c r="C318" t="inlineStr"/>
@@ -7686,10 +7614,8 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>11994667095</t>
-        </is>
+      <c r="A319" t="n">
+        <v>11994667095</v>
       </c>
       <c r="B319" t="inlineStr"/>
       <c r="C319" t="inlineStr"/>
@@ -7705,10 +7631,8 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>92992952016</t>
-        </is>
+      <c r="A320" t="n">
+        <v>92992952016</v>
       </c>
       <c r="B320" t="inlineStr"/>
       <c r="C320" t="inlineStr"/>
@@ -7724,10 +7648,8 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>28999317175</t>
-        </is>
+      <c r="A321" t="n">
+        <v>28999317175</v>
       </c>
       <c r="B321" t="inlineStr"/>
       <c r="C321" t="inlineStr"/>
@@ -7743,10 +7665,8 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>21994981793</t>
-        </is>
+      <c r="A322" t="n">
+        <v>21994981793</v>
       </c>
       <c r="B322" t="inlineStr"/>
       <c r="C322" t="inlineStr"/>
@@ -7762,10 +7682,8 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>21994981793</t>
-        </is>
+      <c r="A323" t="n">
+        <v>21994981793</v>
       </c>
       <c r="B323" t="inlineStr"/>
       <c r="C323" t="inlineStr"/>
@@ -7781,10 +7699,8 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>21982528051</t>
-        </is>
+      <c r="A324" t="n">
+        <v>21982528051</v>
       </c>
       <c r="B324" t="inlineStr"/>
       <c r="C324" t="inlineStr"/>
@@ -7800,10 +7716,8 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>21982528051</t>
-        </is>
+      <c r="A325" t="n">
+        <v>21982528051</v>
       </c>
       <c r="B325" t="inlineStr"/>
       <c r="C325" t="inlineStr"/>
@@ -7819,10 +7733,8 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>92992952016</t>
-        </is>
+      <c r="A326" t="n">
+        <v>92992952016</v>
       </c>
       <c r="B326" t="inlineStr"/>
       <c r="C326" t="inlineStr"/>
@@ -7838,10 +7750,8 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>21983141023</t>
-        </is>
+      <c r="A327" t="n">
+        <v>21983141023</v>
       </c>
       <c r="B327" t="inlineStr"/>
       <c r="C327" t="inlineStr"/>
@@ -7857,10 +7767,8 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>21964251498</t>
-        </is>
+      <c r="A328" t="n">
+        <v>21964251498</v>
       </c>
       <c r="B328" t="inlineStr"/>
       <c r="C328" t="inlineStr"/>
@@ -7876,10 +7784,8 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>21964251498</t>
-        </is>
+      <c r="A329" t="n">
+        <v>21964251498</v>
       </c>
       <c r="B329" t="inlineStr"/>
       <c r="C329" t="inlineStr"/>
@@ -7895,10 +7801,8 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>21964251498</t>
-        </is>
+      <c r="A330" t="n">
+        <v>21964251498</v>
       </c>
       <c r="B330" t="inlineStr"/>
       <c r="C330" t="inlineStr"/>
@@ -7914,10 +7818,8 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>21964251498</t>
-        </is>
+      <c r="A331" t="n">
+        <v>21964251498</v>
       </c>
       <c r="B331" t="inlineStr"/>
       <c r="C331" t="inlineStr"/>
@@ -7933,10 +7835,8 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>24999305101</t>
-        </is>
+      <c r="A332" t="n">
+        <v>24999305101</v>
       </c>
       <c r="B332" t="inlineStr"/>
       <c r="C332" t="inlineStr"/>
@@ -7952,10 +7852,8 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>21965129722</t>
-        </is>
+      <c r="A333" t="n">
+        <v>21965129722</v>
       </c>
       <c r="B333" t="inlineStr"/>
       <c r="C333" t="inlineStr"/>
@@ -7971,10 +7869,8 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>21964036653</t>
-        </is>
+      <c r="A334" t="n">
+        <v>21964036653</v>
       </c>
       <c r="B334" t="inlineStr"/>
       <c r="C334" t="inlineStr"/>
@@ -7990,10 +7886,8 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>24974018815</t>
-        </is>
+      <c r="A335" t="n">
+        <v>24974018815</v>
       </c>
       <c r="B335" t="inlineStr"/>
       <c r="C335" t="inlineStr"/>
@@ -8009,10 +7903,8 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>27992536579</t>
-        </is>
+      <c r="A336" t="n">
+        <v>27992536579</v>
       </c>
       <c r="B336" t="inlineStr"/>
       <c r="C336" t="inlineStr"/>
@@ -8028,10 +7920,8 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>37999544420</t>
-        </is>
+      <c r="A337" t="n">
+        <v>37999544420</v>
       </c>
       <c r="B337" t="inlineStr"/>
       <c r="C337" t="inlineStr"/>
@@ -8047,10 +7937,8 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>37999544420</t>
-        </is>
+      <c r="A338" t="n">
+        <v>37999544420</v>
       </c>
       <c r="B338" t="inlineStr"/>
       <c r="C338" t="inlineStr"/>
@@ -8066,10 +7954,8 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>19999359966</t>
-        </is>
+      <c r="A339" t="n">
+        <v>19999359966</v>
       </c>
       <c r="B339" t="inlineStr"/>
       <c r="C339" t="inlineStr"/>
@@ -8085,10 +7971,8 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>21981939968</t>
-        </is>
+      <c r="A340" t="n">
+        <v>21981939968</v>
       </c>
       <c r="B340" t="inlineStr"/>
       <c r="C340" t="inlineStr"/>
@@ -8104,10 +7988,8 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>21971360894</t>
-        </is>
+      <c r="A341" t="n">
+        <v>21971360894</v>
       </c>
       <c r="B341" t="inlineStr"/>
       <c r="C341" t="inlineStr"/>
@@ -8123,10 +8005,8 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>24999305101</t>
-        </is>
+      <c r="A342" t="n">
+        <v>24999305101</v>
       </c>
       <c r="B342" t="inlineStr"/>
       <c r="C342" t="inlineStr"/>
@@ -8142,10 +8022,8 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>21974584396</t>
-        </is>
+      <c r="A343" t="n">
+        <v>21974584396</v>
       </c>
       <c r="B343" t="inlineStr"/>
       <c r="C343" t="inlineStr"/>
@@ -8161,10 +8039,8 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>27992536579</t>
-        </is>
+      <c r="A344" t="n">
+        <v>27992536579</v>
       </c>
       <c r="B344" t="inlineStr"/>
       <c r="C344" t="inlineStr"/>
@@ -8180,10 +8056,8 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>21974485347</t>
-        </is>
+      <c r="A345" t="n">
+        <v>21974485347</v>
       </c>
       <c r="B345" t="inlineStr"/>
       <c r="C345" t="inlineStr"/>
@@ -8199,10 +8073,8 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>21979818652</t>
-        </is>
+      <c r="A346" t="n">
+        <v>21979818652</v>
       </c>
       <c r="B346" t="inlineStr"/>
       <c r="C346" t="inlineStr"/>
@@ -8218,10 +8090,8 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>21979818652</t>
-        </is>
+      <c r="A347" t="n">
+        <v>21979818652</v>
       </c>
       <c r="B347" t="inlineStr"/>
       <c r="C347" t="inlineStr"/>
@@ -8237,10 +8107,8 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>21971945558</t>
-        </is>
+      <c r="A348" t="n">
+        <v>21971945558</v>
       </c>
       <c r="B348" t="inlineStr"/>
       <c r="C348" t="inlineStr"/>
@@ -8256,10 +8124,8 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>21965955554</t>
-        </is>
+      <c r="A349" t="n">
+        <v>21965955554</v>
       </c>
       <c r="B349" t="inlineStr"/>
       <c r="C349" t="inlineStr"/>
@@ -8275,10 +8141,8 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>21979818652</t>
-        </is>
+      <c r="A350" t="n">
+        <v>21979818652</v>
       </c>
       <c r="B350" t="inlineStr"/>
       <c r="C350" t="inlineStr"/>
@@ -8294,10 +8158,8 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>21971945558</t>
-        </is>
+      <c r="A351" t="n">
+        <v>21971945558</v>
       </c>
       <c r="B351" t="inlineStr"/>
       <c r="C351" t="inlineStr"/>
@@ -8313,10 +8175,8 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>21998971059</t>
-        </is>
+      <c r="A352" t="n">
+        <v>21998971059</v>
       </c>
       <c r="B352" t="inlineStr"/>
       <c r="C352" t="inlineStr"/>
@@ -8332,10 +8192,8 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>21991657911</t>
-        </is>
+      <c r="A353" t="n">
+        <v>21991657911</v>
       </c>
       <c r="B353" t="inlineStr"/>
       <c r="C353" t="inlineStr"/>
@@ -8351,10 +8209,8 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>21998800051</t>
-        </is>
+      <c r="A354" t="n">
+        <v>21998800051</v>
       </c>
       <c r="B354" t="inlineStr"/>
       <c r="C354" t="inlineStr"/>
@@ -8370,10 +8226,8 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>21981121720</t>
-        </is>
+      <c r="A355" t="n">
+        <v>21981121720</v>
       </c>
       <c r="B355" t="inlineStr"/>
       <c r="C355" t="inlineStr"/>
@@ -8389,10 +8243,8 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>21978979054</t>
-        </is>
+      <c r="A356" t="n">
+        <v>21978979054</v>
       </c>
       <c r="B356" t="inlineStr"/>
       <c r="C356" t="inlineStr"/>
@@ -8408,10 +8260,8 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>21975991530</t>
-        </is>
+      <c r="A357" t="n">
+        <v>21975991530</v>
       </c>
       <c r="B357" t="inlineStr"/>
       <c r="C357" t="inlineStr"/>
@@ -8427,10 +8277,8 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>21999995037</t>
-        </is>
+      <c r="A358" t="n">
+        <v>21999995037</v>
       </c>
       <c r="B358" t="inlineStr"/>
       <c r="C358" t="inlineStr"/>
@@ -8446,10 +8294,8 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>71991527468</t>
-        </is>
+      <c r="A359" t="n">
+        <v>71991527468</v>
       </c>
       <c r="B359" t="inlineStr"/>
       <c r="C359" t="inlineStr"/>
@@ -8465,10 +8311,8 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>21991657911</t>
-        </is>
+      <c r="A360" t="n">
+        <v>21991657911</v>
       </c>
       <c r="B360" t="inlineStr"/>
       <c r="C360" t="inlineStr"/>
@@ -8484,10 +8328,8 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>21966618013</t>
-        </is>
+      <c r="A361" t="n">
+        <v>21966618013</v>
       </c>
       <c r="B361" t="inlineStr"/>
       <c r="C361" t="inlineStr"/>
@@ -8503,10 +8345,8 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>31984994195</t>
-        </is>
+      <c r="A362" t="n">
+        <v>31984994195</v>
       </c>
       <c r="B362" t="inlineStr"/>
       <c r="C362" t="inlineStr"/>
@@ -8522,10 +8362,8 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>21979038800</t>
-        </is>
+      <c r="A363" t="n">
+        <v>21979038800</v>
       </c>
       <c r="B363" t="inlineStr"/>
       <c r="C363" t="inlineStr"/>
@@ -8541,10 +8379,8 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>21996964938</t>
-        </is>
+      <c r="A364" t="n">
+        <v>21996964938</v>
       </c>
       <c r="B364" t="inlineStr"/>
       <c r="C364" t="inlineStr"/>
@@ -8560,10 +8396,8 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>21996964938</t>
-        </is>
+      <c r="A365" t="n">
+        <v>21996964938</v>
       </c>
       <c r="B365" t="inlineStr"/>
       <c r="C365" t="inlineStr"/>
@@ -8579,10 +8413,8 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>21996964938</t>
-        </is>
+      <c r="A366" t="n">
+        <v>21996964938</v>
       </c>
       <c r="B366" t="inlineStr"/>
       <c r="C366" t="inlineStr"/>
@@ -8598,10 +8430,8 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>21998126448</t>
-        </is>
+      <c r="A367" t="n">
+        <v>21998126448</v>
       </c>
       <c r="B367" t="inlineStr"/>
       <c r="C367" t="inlineStr"/>
@@ -8617,10 +8447,8 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>21998126448</t>
-        </is>
+      <c r="A368" t="n">
+        <v>21998126448</v>
       </c>
       <c r="B368" t="inlineStr"/>
       <c r="C368" t="inlineStr"/>
@@ -8636,10 +8464,8 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>21981624565</t>
-        </is>
+      <c r="A369" t="n">
+        <v>21981624565</v>
       </c>
       <c r="B369" t="inlineStr"/>
       <c r="C369" t="inlineStr"/>
@@ -8655,10 +8481,8 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>21981624565</t>
-        </is>
+      <c r="A370" t="n">
+        <v>21981624565</v>
       </c>
       <c r="B370" t="inlineStr"/>
       <c r="C370" t="inlineStr"/>
@@ -8674,10 +8498,8 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>21996964938</t>
-        </is>
+      <c r="A371" t="n">
+        <v>21996964938</v>
       </c>
       <c r="B371" t="inlineStr"/>
       <c r="C371" t="inlineStr"/>
@@ -8693,10 +8515,8 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>21996964938</t>
-        </is>
+      <c r="A372" t="n">
+        <v>21996964938</v>
       </c>
       <c r="B372" t="inlineStr"/>
       <c r="C372" t="inlineStr"/>
@@ -8712,10 +8532,8 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>21996964938</t>
-        </is>
+      <c r="A373" t="n">
+        <v>21996964938</v>
       </c>
       <c r="B373" t="inlineStr"/>
       <c r="C373" t="inlineStr"/>
@@ -8731,10 +8549,8 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>21986240892</t>
-        </is>
+      <c r="A374" t="n">
+        <v>21986240892</v>
       </c>
       <c r="B374" t="inlineStr"/>
       <c r="C374" t="inlineStr"/>
@@ -8750,10 +8566,8 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>21986240892</t>
-        </is>
+      <c r="A375" t="n">
+        <v>21986240892</v>
       </c>
       <c r="B375" t="inlineStr"/>
       <c r="C375" t="inlineStr"/>
@@ -8769,10 +8583,8 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>21981882686</t>
-        </is>
+      <c r="A376" t="n">
+        <v>21981882686</v>
       </c>
       <c r="B376" t="inlineStr"/>
       <c r="C376" t="inlineStr"/>
@@ -8788,10 +8600,8 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>21965485332</t>
-        </is>
+      <c r="A377" t="n">
+        <v>21965485332</v>
       </c>
       <c r="B377" t="inlineStr"/>
       <c r="C377" t="inlineStr"/>
@@ -8807,10 +8617,8 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>21981147722</t>
-        </is>
+      <c r="A378" t="n">
+        <v>21981147722</v>
       </c>
       <c r="B378" t="inlineStr"/>
       <c r="C378" t="inlineStr"/>
@@ -8826,10 +8634,8 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>21983289349</t>
-        </is>
+      <c r="A379" t="n">
+        <v>21983289349</v>
       </c>
       <c r="B379" t="inlineStr"/>
       <c r="C379" t="inlineStr"/>
@@ -8845,10 +8651,8 @@
       </c>
     </row>
     <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>21986240892</t>
-        </is>
+      <c r="A380" t="n">
+        <v>21986240892</v>
       </c>
       <c r="B380" t="inlineStr"/>
       <c r="C380" t="inlineStr"/>
@@ -8864,10 +8668,8 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>11987907961</t>
-        </is>
+      <c r="A381" t="n">
+        <v>11987907961</v>
       </c>
       <c r="B381" t="inlineStr"/>
       <c r="C381" t="inlineStr"/>
@@ -8883,10 +8685,8 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>11987907961</t>
-        </is>
+      <c r="A382" t="n">
+        <v>11987907961</v>
       </c>
       <c r="B382" t="inlineStr"/>
       <c r="C382" t="inlineStr"/>
@@ -8902,10 +8702,8 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>21983289349</t>
-        </is>
+      <c r="A383" t="n">
+        <v>21983289349</v>
       </c>
       <c r="B383" t="inlineStr"/>
       <c r="C383" t="inlineStr"/>
@@ -8921,10 +8719,8 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>21995334031</t>
-        </is>
+      <c r="A384" t="n">
+        <v>21995334031</v>
       </c>
       <c r="B384" t="inlineStr"/>
       <c r="C384" t="inlineStr"/>
@@ -8940,10 +8736,8 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>21980728164</t>
-        </is>
+      <c r="A385" t="n">
+        <v>21980728164</v>
       </c>
       <c r="B385" t="inlineStr"/>
       <c r="C385" t="inlineStr"/>
@@ -8959,10 +8753,8 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>21990530198</t>
-        </is>
+      <c r="A386" t="n">
+        <v>21990530198</v>
       </c>
       <c r="B386" t="inlineStr"/>
       <c r="C386" t="inlineStr"/>
@@ -8978,10 +8770,8 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>21988002555</t>
-        </is>
+      <c r="A387" t="n">
+        <v>21988002555</v>
       </c>
       <c r="B387" t="inlineStr"/>
       <c r="C387" t="inlineStr"/>
@@ -8997,10 +8787,8 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>21982169910</t>
-        </is>
+      <c r="A388" t="n">
+        <v>21982169910</v>
       </c>
       <c r="B388" t="inlineStr"/>
       <c r="C388" t="inlineStr"/>
@@ -9016,10 +8804,8 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>21998043737</t>
-        </is>
+      <c r="A389" t="n">
+        <v>21998043737</v>
       </c>
       <c r="B389" t="inlineStr"/>
       <c r="C389" t="inlineStr"/>
@@ -9035,10 +8821,8 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>21998308072</t>
-        </is>
+      <c r="A390" t="n">
+        <v>21998308072</v>
       </c>
       <c r="B390" t="inlineStr"/>
       <c r="C390" t="inlineStr"/>
@@ -9054,10 +8838,8 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>21996272349</t>
-        </is>
+      <c r="A391" t="n">
+        <v>21996272349</v>
       </c>
       <c r="B391" t="inlineStr"/>
       <c r="C391" t="inlineStr"/>
@@ -9073,10 +8855,8 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>11985364995</t>
-        </is>
+      <c r="A392" t="n">
+        <v>11985364995</v>
       </c>
       <c r="B392" t="inlineStr"/>
       <c r="C392" t="inlineStr"/>
@@ -9092,10 +8872,8 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>21964251498</t>
-        </is>
+      <c r="A393" t="n">
+        <v>21964251498</v>
       </c>
       <c r="B393" t="inlineStr"/>
       <c r="C393" t="inlineStr"/>
@@ -9111,10 +8889,8 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>22998519620</t>
-        </is>
+      <c r="A394" t="n">
+        <v>22998519620</v>
       </c>
       <c r="B394" t="inlineStr"/>
       <c r="C394" t="inlineStr"/>
@@ -9130,10 +8906,8 @@
       </c>
     </row>
     <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>22998519620</t>
-        </is>
+      <c r="A395" t="n">
+        <v>22998519620</v>
       </c>
       <c r="B395" t="inlineStr"/>
       <c r="C395" t="inlineStr"/>
@@ -9149,10 +8923,8 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>21991844386</t>
-        </is>
+      <c r="A396" t="n">
+        <v>21991844386</v>
       </c>
       <c r="B396" t="inlineStr"/>
       <c r="C396" t="inlineStr"/>
@@ -9168,10 +8940,8 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>61981866976</t>
-        </is>
+      <c r="A397" t="n">
+        <v>61981866976</v>
       </c>
       <c r="B397" t="inlineStr"/>
       <c r="C397" t="inlineStr"/>
@@ -9187,10 +8957,8 @@
       </c>
     </row>
     <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>21969870072</t>
-        </is>
+      <c r="A398" t="n">
+        <v>21969870072</v>
       </c>
       <c r="B398" t="inlineStr"/>
       <c r="C398" t="inlineStr"/>
@@ -9206,10 +8974,8 @@
       </c>
     </row>
     <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>51993429811</t>
-        </is>
+      <c r="A399" t="n">
+        <v>51993429811</v>
       </c>
       <c r="B399" t="inlineStr"/>
       <c r="C399" t="inlineStr"/>
@@ -9225,10 +8991,8 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>21981947669</t>
-        </is>
+      <c r="A400" t="n">
+        <v>21981947669</v>
       </c>
       <c r="B400" t="inlineStr"/>
       <c r="C400" t="inlineStr"/>
@@ -9244,10 +9008,8 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>61981866976</t>
-        </is>
+      <c r="A401" t="n">
+        <v>61981866976</v>
       </c>
       <c r="B401" t="inlineStr"/>
       <c r="C401" t="inlineStr"/>
@@ -9263,10 +9025,8 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>21999021300</t>
-        </is>
+      <c r="A402" t="n">
+        <v>21999021300</v>
       </c>
       <c r="B402" t="inlineStr"/>
       <c r="C402" t="inlineStr"/>
@@ -9282,10 +9042,8 @@
       </c>
     </row>
     <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>21987040877</t>
-        </is>
+      <c r="A403" t="n">
+        <v>21987040877</v>
       </c>
       <c r="B403" t="inlineStr"/>
       <c r="C403" t="inlineStr"/>
@@ -9301,10 +9059,8 @@
       </c>
     </row>
     <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>11975430089</t>
-        </is>
+      <c r="A404" t="n">
+        <v>11975430089</v>
       </c>
       <c r="B404" t="inlineStr"/>
       <c r="C404" t="inlineStr"/>
@@ -9320,10 +9076,8 @@
       </c>
     </row>
     <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>21964251498</t>
-        </is>
+      <c r="A405" t="n">
+        <v>21964251498</v>
       </c>
       <c r="B405" t="inlineStr"/>
       <c r="C405" t="inlineStr"/>
@@ -9339,10 +9093,8 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>21994864842</t>
-        </is>
+      <c r="A406" t="n">
+        <v>21994864842</v>
       </c>
       <c r="B406" t="inlineStr"/>
       <c r="C406" t="inlineStr"/>
@@ -9358,10 +9110,8 @@
       </c>
     </row>
     <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>22981495010</t>
-        </is>
+      <c r="A407" t="n">
+        <v>22981495010</v>
       </c>
       <c r="B407" t="inlineStr"/>
       <c r="C407" t="inlineStr"/>
@@ -9377,10 +9127,8 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>21988099189</t>
-        </is>
+      <c r="A408" t="n">
+        <v>21988099189</v>
       </c>
       <c r="B408" t="inlineStr"/>
       <c r="C408" t="inlineStr"/>
@@ -9396,10 +9144,8 @@
       </c>
     </row>
     <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>21989162807</t>
-        </is>
+      <c r="A409" t="n">
+        <v>21989162807</v>
       </c>
       <c r="B409" t="inlineStr"/>
       <c r="C409" t="inlineStr"/>
@@ -9415,10 +9161,8 @@
       </c>
     </row>
     <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>21999154271</t>
-        </is>
+      <c r="A410" t="n">
+        <v>21999154271</v>
       </c>
       <c r="B410" t="inlineStr"/>
       <c r="C410" t="inlineStr"/>
@@ -9434,10 +9178,8 @@
       </c>
     </row>
     <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>21981222565</t>
-        </is>
+      <c r="A411" t="n">
+        <v>21981222565</v>
       </c>
       <c r="B411" t="inlineStr"/>
       <c r="C411" t="inlineStr"/>
@@ -9453,10 +9195,8 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>21998199868</t>
-        </is>
+      <c r="A412" t="n">
+        <v>21998199868</v>
       </c>
       <c r="B412" t="inlineStr"/>
       <c r="C412" t="inlineStr"/>
@@ -9472,10 +9212,8 @@
       </c>
     </row>
     <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>21999981752</t>
-        </is>
+      <c r="A413" t="n">
+        <v>21999981752</v>
       </c>
       <c r="B413" t="inlineStr"/>
       <c r="C413" t="inlineStr"/>
@@ -9491,10 +9229,8 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>21970019821</t>
-        </is>
+      <c r="A414" t="n">
+        <v>21970019821</v>
       </c>
       <c r="B414" t="inlineStr"/>
       <c r="C414" t="inlineStr"/>
@@ -9510,10 +9246,8 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>21981938409</t>
-        </is>
+      <c r="A415" t="n">
+        <v>21981938409</v>
       </c>
       <c r="B415" t="inlineStr"/>
       <c r="C415" t="inlineStr"/>
@@ -9529,10 +9263,8 @@
       </c>
     </row>
     <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>21964226130</t>
-        </is>
+      <c r="A416" t="n">
+        <v>21964226130</v>
       </c>
       <c r="B416" t="inlineStr"/>
       <c r="C416" t="inlineStr"/>
@@ -9548,10 +9280,8 @@
       </c>
     </row>
     <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>21975492012</t>
-        </is>
+      <c r="A417" t="n">
+        <v>21975492012</v>
       </c>
       <c r="B417" t="inlineStr"/>
       <c r="C417" t="inlineStr"/>
@@ -9567,10 +9297,8 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>21996110395</t>
-        </is>
+      <c r="A418" t="n">
+        <v>21996110395</v>
       </c>
       <c r="B418" t="inlineStr"/>
       <c r="C418" t="inlineStr"/>
@@ -9586,10 +9314,8 @@
       </c>
     </row>
     <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>21991782593</t>
-        </is>
+      <c r="A419" t="n">
+        <v>21991782593</v>
       </c>
       <c r="B419" t="inlineStr"/>
       <c r="C419" t="inlineStr"/>
@@ -9605,10 +9331,8 @@
       </c>
     </row>
     <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>11973258765</t>
-        </is>
+      <c r="A420" t="n">
+        <v>11973258765</v>
       </c>
       <c r="B420" t="inlineStr"/>
       <c r="C420" t="inlineStr"/>
@@ -9624,10 +9348,8 @@
       </c>
     </row>
     <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>22981104191</t>
-        </is>
+      <c r="A421" t="n">
+        <v>22981104191</v>
       </c>
       <c r="B421" t="inlineStr"/>
       <c r="C421" t="inlineStr"/>
@@ -9643,10 +9365,8 @@
       </c>
     </row>
     <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>21971777657</t>
-        </is>
+      <c r="A422" t="n">
+        <v>21971777657</v>
       </c>
       <c r="B422" t="inlineStr"/>
       <c r="C422" t="inlineStr"/>
@@ -9662,10 +9382,8 @@
       </c>
     </row>
     <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>21971777657</t>
-        </is>
+      <c r="A423" t="n">
+        <v>21971777657</v>
       </c>
       <c r="B423" t="inlineStr"/>
       <c r="C423" t="inlineStr"/>
@@ -9681,10 +9399,8 @@
       </c>
     </row>
     <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>21971274713</t>
-        </is>
+      <c r="A424" t="n">
+        <v>21971274713</v>
       </c>
       <c r="B424" t="inlineStr"/>
       <c r="C424" t="inlineStr"/>
@@ -9700,10 +9416,8 @@
       </c>
     </row>
     <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>21964711508</t>
-        </is>
+      <c r="A425" t="n">
+        <v>21964711508</v>
       </c>
       <c r="B425" t="inlineStr"/>
       <c r="C425" t="inlineStr"/>
@@ -9719,10 +9433,8 @@
       </c>
     </row>
     <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>21999937776</t>
-        </is>
+      <c r="A426" t="n">
+        <v>21999937776</v>
       </c>
       <c r="B426" t="inlineStr"/>
       <c r="C426" t="inlineStr"/>
@@ -9738,10 +9450,8 @@
       </c>
     </row>
     <row r="427">
-      <c r="A427" t="inlineStr">
-        <is>
-          <t>21964711508</t>
-        </is>
+      <c r="A427" t="n">
+        <v>21964711508</v>
       </c>
       <c r="B427" t="inlineStr"/>
       <c r="C427" t="inlineStr"/>
@@ -9757,10 +9467,8 @@
       </c>
     </row>
     <row r="428">
-      <c r="A428" t="inlineStr">
-        <is>
-          <t>21997737766</t>
-        </is>
+      <c r="A428" t="n">
+        <v>21997737766</v>
       </c>
       <c r="B428" t="inlineStr"/>
       <c r="C428" t="inlineStr"/>
@@ -9776,10 +9484,8 @@
       </c>
     </row>
     <row r="429">
-      <c r="A429" t="inlineStr">
-        <is>
-          <t>19974179289</t>
-        </is>
+      <c r="A429" t="n">
+        <v>19974179289</v>
       </c>
       <c r="B429" t="inlineStr"/>
       <c r="C429" t="inlineStr"/>
@@ -9795,10 +9501,8 @@
       </c>
     </row>
     <row r="430">
-      <c r="A430" t="inlineStr">
-        <is>
-          <t>21993795890</t>
-        </is>
+      <c r="A430" t="n">
+        <v>21993795890</v>
       </c>
       <c r="B430" t="inlineStr"/>
       <c r="C430" t="inlineStr"/>
@@ -9814,10 +9518,8 @@
       </c>
     </row>
     <row r="431">
-      <c r="A431" t="inlineStr">
-        <is>
-          <t>22998133019</t>
-        </is>
+      <c r="A431" t="n">
+        <v>22998133019</v>
       </c>
       <c r="B431" t="inlineStr"/>
       <c r="C431" t="inlineStr"/>
@@ -9833,10 +9535,8 @@
       </c>
     </row>
     <row r="432">
-      <c r="A432" t="inlineStr">
-        <is>
-          <t>67992811515</t>
-        </is>
+      <c r="A432" t="n">
+        <v>67992811515</v>
       </c>
       <c r="B432" t="inlineStr"/>
       <c r="C432" t="inlineStr"/>
@@ -9852,10 +9552,8 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" t="inlineStr">
-        <is>
-          <t>22998133019</t>
-        </is>
+      <c r="A433" t="n">
+        <v>22998133019</v>
       </c>
       <c r="B433" t="inlineStr"/>
       <c r="C433" t="inlineStr"/>
@@ -9871,10 +9569,8 @@
       </c>
     </row>
     <row r="434">
-      <c r="A434" t="inlineStr">
-        <is>
-          <t>22998133019</t>
-        </is>
+      <c r="A434" t="n">
+        <v>22998133019</v>
       </c>
       <c r="B434" t="inlineStr"/>
       <c r="C434" t="inlineStr"/>
@@ -9890,10 +9586,8 @@
       </c>
     </row>
     <row r="435">
-      <c r="A435" t="inlineStr">
-        <is>
-          <t>22998133019</t>
-        </is>
+      <c r="A435" t="n">
+        <v>22998133019</v>
       </c>
       <c r="B435" t="inlineStr"/>
       <c r="C435" t="inlineStr"/>
@@ -9909,10 +9603,8 @@
       </c>
     </row>
     <row r="436">
-      <c r="A436" t="inlineStr">
-        <is>
-          <t>22998133019</t>
-        </is>
+      <c r="A436" t="n">
+        <v>22998133019</v>
       </c>
       <c r="B436" t="inlineStr"/>
       <c r="C436" t="inlineStr"/>
@@ -9928,10 +9620,8 @@
       </c>
     </row>
     <row r="437">
-      <c r="A437" t="inlineStr">
-        <is>
-          <t>67992811515</t>
-        </is>
+      <c r="A437" t="n">
+        <v>67992811515</v>
       </c>
       <c r="B437" t="inlineStr"/>
       <c r="C437" t="inlineStr"/>
@@ -9947,10 +9637,8 @@
       </c>
     </row>
     <row r="438">
-      <c r="A438" t="inlineStr">
-        <is>
-          <t>21994120906</t>
-        </is>
+      <c r="A438" t="n">
+        <v>21994120906</v>
       </c>
       <c r="B438" t="inlineStr"/>
       <c r="C438" t="inlineStr"/>
@@ -9966,10 +9654,8 @@
       </c>
     </row>
     <row r="439">
-      <c r="A439" t="inlineStr">
-        <is>
-          <t>21994120906</t>
-        </is>
+      <c r="A439" t="n">
+        <v>21994120906</v>
       </c>
       <c r="B439" t="inlineStr"/>
       <c r="C439" t="inlineStr"/>
@@ -9985,10 +9671,8 @@
       </c>
     </row>
     <row r="440">
-      <c r="A440" t="inlineStr">
-        <is>
-          <t>21994120906</t>
-        </is>
+      <c r="A440" t="n">
+        <v>21994120906</v>
       </c>
       <c r="B440" t="inlineStr"/>
       <c r="C440" t="inlineStr"/>
@@ -10004,10 +9688,8 @@
       </c>
     </row>
     <row r="441">
-      <c r="A441" t="inlineStr">
-        <is>
-          <t>21994120906</t>
-        </is>
+      <c r="A441" t="n">
+        <v>21994120906</v>
       </c>
       <c r="B441" t="inlineStr"/>
       <c r="C441" t="inlineStr"/>
@@ -10023,10 +9705,8 @@
       </c>
     </row>
     <row r="442">
-      <c r="A442" t="inlineStr">
-        <is>
-          <t>22998133019</t>
-        </is>
+      <c r="A442" t="n">
+        <v>22998133019</v>
       </c>
       <c r="B442" t="inlineStr"/>
       <c r="C442" t="inlineStr"/>
@@ -10042,10 +9722,8 @@
       </c>
     </row>
     <row r="443">
-      <c r="A443" t="inlineStr">
-        <is>
-          <t>22998133019</t>
-        </is>
+      <c r="A443" t="n">
+        <v>22998133019</v>
       </c>
       <c r="B443" t="inlineStr"/>
       <c r="C443" t="inlineStr"/>
@@ -10061,10 +9739,8 @@
       </c>
     </row>
     <row r="444">
-      <c r="A444" t="inlineStr">
-        <is>
-          <t>21964226130</t>
-        </is>
+      <c r="A444" t="n">
+        <v>21964226130</v>
       </c>
       <c r="B444" t="inlineStr"/>
       <c r="C444" t="inlineStr"/>
@@ -10080,10 +9756,8 @@
       </c>
     </row>
     <row r="445">
-      <c r="A445" t="inlineStr">
-        <is>
-          <t>21964226130</t>
-        </is>
+      <c r="A445" t="n">
+        <v>21964226130</v>
       </c>
       <c r="B445" t="inlineStr"/>
       <c r="C445" t="inlineStr"/>
@@ -10099,10 +9773,8 @@
       </c>
     </row>
     <row r="446">
-      <c r="A446" t="inlineStr">
-        <is>
-          <t>21973180467</t>
-        </is>
+      <c r="A446" t="n">
+        <v>21973180467</v>
       </c>
       <c r="B446" t="inlineStr"/>
       <c r="C446" t="inlineStr"/>
@@ -10118,10 +9790,8 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" t="inlineStr">
-        <is>
-          <t>21970840619</t>
-        </is>
+      <c r="A447" t="n">
+        <v>21970840619</v>
       </c>
       <c r="B447" t="inlineStr"/>
       <c r="C447" t="inlineStr"/>
@@ -10137,10 +9807,8 @@
       </c>
     </row>
     <row r="448">
-      <c r="A448" t="inlineStr">
-        <is>
-          <t>21994120906</t>
-        </is>
+      <c r="A448" t="n">
+        <v>21994120906</v>
       </c>
       <c r="B448" t="inlineStr"/>
       <c r="C448" t="inlineStr"/>
@@ -10156,10 +9824,8 @@
       </c>
     </row>
     <row r="449">
-      <c r="A449" t="inlineStr">
-        <is>
-          <t>21986169192</t>
-        </is>
+      <c r="A449" t="n">
+        <v>21986169192</v>
       </c>
       <c r="B449" t="inlineStr"/>
       <c r="C449" t="inlineStr"/>
@@ -10175,10 +9841,8 @@
       </c>
     </row>
     <row r="450">
-      <c r="A450" t="inlineStr">
-        <is>
-          <t>21972224781</t>
-        </is>
+      <c r="A450" t="n">
+        <v>21972224781</v>
       </c>
       <c r="B450" t="inlineStr"/>
       <c r="C450" t="inlineStr"/>
@@ -10194,10 +9858,8 @@
       </c>
     </row>
     <row r="451">
-      <c r="A451" t="inlineStr">
-        <is>
-          <t>21970042868</t>
-        </is>
+      <c r="A451" t="n">
+        <v>21970042868</v>
       </c>
       <c r="B451" t="inlineStr"/>
       <c r="C451" t="inlineStr"/>
@@ -10213,10 +9875,8 @@
       </c>
     </row>
     <row r="452">
-      <c r="A452" t="inlineStr">
-        <is>
-          <t>21996990230</t>
-        </is>
+      <c r="A452" t="n">
+        <v>21996990230</v>
       </c>
       <c r="B452" t="inlineStr"/>
       <c r="C452" t="inlineStr"/>
@@ -10232,10 +9892,8 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" t="inlineStr">
-        <is>
-          <t>21997185403</t>
-        </is>
+      <c r="A453" t="n">
+        <v>21997185403</v>
       </c>
       <c r="B453" t="inlineStr"/>
       <c r="C453" t="inlineStr"/>
@@ -10251,10 +9909,8 @@
       </c>
     </row>
     <row r="454">
-      <c r="A454" t="inlineStr">
-        <is>
-          <t>21991124409</t>
-        </is>
+      <c r="A454" t="n">
+        <v>21991124409</v>
       </c>
       <c r="B454" t="inlineStr"/>
       <c r="C454" t="inlineStr"/>
@@ -10270,10 +9926,8 @@
       </c>
     </row>
     <row r="455">
-      <c r="A455" t="inlineStr">
-        <is>
-          <t>21986462002</t>
-        </is>
+      <c r="A455" t="n">
+        <v>21986462002</v>
       </c>
       <c r="B455" t="inlineStr"/>
       <c r="C455" t="inlineStr"/>
@@ -10289,10 +9943,8 @@
       </c>
     </row>
     <row r="456">
-      <c r="A456" t="inlineStr">
-        <is>
-          <t>21986462002</t>
-        </is>
+      <c r="A456" t="n">
+        <v>21986462002</v>
       </c>
       <c r="B456" t="inlineStr"/>
       <c r="C456" t="inlineStr"/>
@@ -10308,10 +9960,8 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="inlineStr">
-        <is>
-          <t>21965611180</t>
-        </is>
+      <c r="A457" t="n">
+        <v>21965611180</v>
       </c>
       <c r="B457" t="inlineStr"/>
       <c r="C457" t="inlineStr"/>
@@ -10327,10 +9977,8 @@
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="inlineStr">
-        <is>
-          <t>21995866957</t>
-        </is>
+      <c r="A458" t="n">
+        <v>21995866957</v>
       </c>
       <c r="B458" t="inlineStr"/>
       <c r="C458" t="inlineStr"/>
@@ -10346,10 +9994,8 @@
       </c>
     </row>
     <row r="459">
-      <c r="A459" t="inlineStr">
-        <is>
-          <t>21997093857</t>
-        </is>
+      <c r="A459" t="n">
+        <v>21997093857</v>
       </c>
       <c r="B459" t="inlineStr"/>
       <c r="C459" t="inlineStr"/>
@@ -10365,10 +10011,8 @@
       </c>
     </row>
     <row r="460">
-      <c r="A460" t="inlineStr">
-        <is>
-          <t>21991191950</t>
-        </is>
+      <c r="A460" t="n">
+        <v>21991191950</v>
       </c>
       <c r="B460" t="inlineStr"/>
       <c r="C460" t="inlineStr"/>
@@ -10384,10 +10028,8 @@
       </c>
     </row>
     <row r="461">
-      <c r="A461" t="inlineStr">
-        <is>
-          <t>21999547529</t>
-        </is>
+      <c r="A461" t="n">
+        <v>21999547529</v>
       </c>
       <c r="B461" t="inlineStr"/>
       <c r="C461" t="inlineStr"/>
@@ -10403,10 +10045,8 @@
       </c>
     </row>
     <row r="462">
-      <c r="A462" t="inlineStr">
-        <is>
-          <t>21965531603</t>
-        </is>
+      <c r="A462" t="n">
+        <v>21965531603</v>
       </c>
       <c r="B462" t="inlineStr"/>
       <c r="C462" t="inlineStr"/>
@@ -10422,10 +10062,8 @@
       </c>
     </row>
     <row r="463">
-      <c r="A463" t="inlineStr">
-        <is>
-          <t>21998808758</t>
-        </is>
+      <c r="A463" t="n">
+        <v>21998808758</v>
       </c>
       <c r="B463" t="inlineStr"/>
       <c r="C463" t="inlineStr"/>
@@ -10441,10 +10079,8 @@
       </c>
     </row>
     <row r="464">
-      <c r="A464" t="inlineStr">
-        <is>
-          <t>21998808758</t>
-        </is>
+      <c r="A464" t="n">
+        <v>21998808758</v>
       </c>
       <c r="B464" t="inlineStr"/>
       <c r="C464" t="inlineStr"/>
@@ -10460,10 +10096,8 @@
       </c>
     </row>
     <row r="465">
-      <c r="A465" t="inlineStr">
-        <is>
-          <t>21994375918</t>
-        </is>
+      <c r="A465" t="n">
+        <v>21994375918</v>
       </c>
       <c r="B465" t="inlineStr"/>
       <c r="C465" t="inlineStr"/>
@@ -10479,10 +10113,8 @@
       </c>
     </row>
     <row r="466">
-      <c r="A466" t="inlineStr">
-        <is>
-          <t>21990116083</t>
-        </is>
+      <c r="A466" t="n">
+        <v>21990116083</v>
       </c>
       <c r="B466" t="inlineStr"/>
       <c r="C466" t="inlineStr"/>
@@ -10498,10 +10130,8 @@
       </c>
     </row>
     <row r="467">
-      <c r="A467" t="inlineStr">
-        <is>
-          <t>31991075842</t>
-        </is>
+      <c r="A467" t="n">
+        <v>31991075842</v>
       </c>
       <c r="B467" t="inlineStr"/>
       <c r="C467" t="inlineStr"/>
@@ -10517,10 +10147,8 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" t="inlineStr">
-        <is>
-          <t>21973368020</t>
-        </is>
+      <c r="A468" t="n">
+        <v>21973368020</v>
       </c>
       <c r="B468" t="inlineStr"/>
       <c r="C468" t="inlineStr"/>
@@ -10536,10 +10164,8 @@
       </c>
     </row>
     <row r="469">
-      <c r="A469" t="inlineStr">
-        <is>
-          <t>11974450391</t>
-        </is>
+      <c r="A469" t="n">
+        <v>11974450391</v>
       </c>
       <c r="B469" t="inlineStr"/>
       <c r="C469" t="inlineStr"/>
@@ -10555,10 +10181,8 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" t="inlineStr">
-        <is>
-          <t>13974214886</t>
-        </is>
+      <c r="A470" t="n">
+        <v>13974214886</v>
       </c>
       <c r="B470" t="inlineStr"/>
       <c r="C470" t="inlineStr"/>
@@ -10574,10 +10198,8 @@
       </c>
     </row>
     <row r="471">
-      <c r="A471" t="inlineStr">
-        <is>
-          <t>21976732806</t>
-        </is>
+      <c r="A471" t="n">
+        <v>21976732806</v>
       </c>
       <c r="B471" t="inlineStr"/>
       <c r="C471" t="inlineStr"/>
@@ -10593,10 +10215,8 @@
       </c>
     </row>
     <row r="472">
-      <c r="A472" t="inlineStr">
-        <is>
-          <t>21986463936</t>
-        </is>
+      <c r="A472" t="n">
+        <v>21986463936</v>
       </c>
       <c r="B472" t="inlineStr"/>
       <c r="C472" t="inlineStr"/>
@@ -10612,10 +10232,8 @@
       </c>
     </row>
     <row r="473">
-      <c r="A473" t="inlineStr">
-        <is>
-          <t>21986463936</t>
-        </is>
+      <c r="A473" t="n">
+        <v>21986463936</v>
       </c>
       <c r="B473" t="inlineStr"/>
       <c r="C473" t="inlineStr"/>
@@ -10631,10 +10249,8 @@
       </c>
     </row>
     <row r="474">
-      <c r="A474" t="inlineStr">
-        <is>
-          <t>21982889389</t>
-        </is>
+      <c r="A474" t="n">
+        <v>21982889389</v>
       </c>
       <c r="B474" t="inlineStr"/>
       <c r="C474" t="inlineStr"/>
@@ -10650,10 +10266,8 @@
       </c>
     </row>
     <row r="475">
-      <c r="A475" t="inlineStr">
-        <is>
-          <t>21982889389</t>
-        </is>
+      <c r="A475" t="n">
+        <v>21982889389</v>
       </c>
       <c r="B475" t="inlineStr"/>
       <c r="C475" t="inlineStr"/>
@@ -10669,10 +10283,8 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>21982889389</t>
-        </is>
+      <c r="A476" t="n">
+        <v>21982889389</v>
       </c>
       <c r="B476" t="inlineStr"/>
       <c r="C476" t="inlineStr"/>
@@ -10688,10 +10300,8 @@
       </c>
     </row>
     <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>21982889389</t>
-        </is>
+      <c r="A477" t="n">
+        <v>21982889389</v>
       </c>
       <c r="B477" t="inlineStr"/>
       <c r="C477" t="inlineStr"/>
@@ -10707,10 +10317,8 @@
       </c>
     </row>
     <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>21989580842</t>
-        </is>
+      <c r="A478" t="n">
+        <v>21989580842</v>
       </c>
       <c r="B478" t="inlineStr"/>
       <c r="C478" t="inlineStr"/>
@@ -10726,10 +10334,8 @@
       </c>
     </row>
     <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>21964304940</t>
-        </is>
+      <c r="A479" t="n">
+        <v>21964304940</v>
       </c>
       <c r="B479" t="inlineStr"/>
       <c r="C479" t="inlineStr"/>
@@ -10745,10 +10351,8 @@
       </c>
     </row>
     <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>21980367961</t>
-        </is>
+      <c r="A480" t="n">
+        <v>21980367961</v>
       </c>
       <c r="B480" t="inlineStr"/>
       <c r="C480" t="inlineStr"/>
@@ -10764,10 +10368,8 @@
       </c>
     </row>
     <row r="481">
-      <c r="A481" t="inlineStr">
-        <is>
-          <t>21986462002</t>
-        </is>
+      <c r="A481" t="n">
+        <v>21986462002</v>
       </c>
       <c r="B481" t="inlineStr"/>
       <c r="C481" t="inlineStr"/>
@@ -10783,10 +10385,8 @@
       </c>
     </row>
     <row r="482">
-      <c r="A482" t="inlineStr">
-        <is>
-          <t>21964304940</t>
-        </is>
+      <c r="A482" t="n">
+        <v>21964304940</v>
       </c>
       <c r="B482" t="inlineStr"/>
       <c r="C482" t="inlineStr"/>
@@ -10802,10 +10402,8 @@
       </c>
     </row>
     <row r="483">
-      <c r="A483" t="inlineStr">
-        <is>
-          <t>21987697121</t>
-        </is>
+      <c r="A483" t="n">
+        <v>21987697121</v>
       </c>
       <c r="B483" t="inlineStr"/>
       <c r="C483" t="inlineStr"/>
@@ -10821,10 +10419,8 @@
       </c>
     </row>
     <row r="484">
-      <c r="A484" t="inlineStr">
-        <is>
-          <t>21997778473</t>
-        </is>
+      <c r="A484" t="n">
+        <v>21997778473</v>
       </c>
       <c r="B484" t="inlineStr"/>
       <c r="C484" t="inlineStr"/>
@@ -10840,10 +10436,8 @@
       </c>
     </row>
     <row r="485">
-      <c r="A485" t="inlineStr">
-        <is>
-          <t>21997093857</t>
-        </is>
+      <c r="A485" t="n">
+        <v>21997093857</v>
       </c>
       <c r="B485" t="inlineStr"/>
       <c r="C485" t="inlineStr"/>
@@ -10859,10 +10453,8 @@
       </c>
     </row>
     <row r="486">
-      <c r="A486" t="inlineStr">
-        <is>
-          <t>21966417991</t>
-        </is>
+      <c r="A486" t="n">
+        <v>21966417991</v>
       </c>
       <c r="B486" t="inlineStr"/>
       <c r="C486" t="inlineStr"/>
@@ -10878,10 +10470,8 @@
       </c>
     </row>
     <row r="487">
-      <c r="A487" t="inlineStr">
-        <is>
-          <t>11967573011</t>
-        </is>
+      <c r="A487" t="n">
+        <v>11967573011</v>
       </c>
       <c r="B487" t="inlineStr"/>
       <c r="C487" t="inlineStr"/>
@@ -10897,10 +10487,8 @@
       </c>
     </row>
     <row r="488">
-      <c r="A488" t="inlineStr">
-        <is>
-          <t>21983618535</t>
-        </is>
+      <c r="A488" t="n">
+        <v>21983618535</v>
       </c>
       <c r="B488" t="inlineStr"/>
       <c r="C488" t="inlineStr"/>
@@ -10916,10 +10504,8 @@
       </c>
     </row>
     <row r="489">
-      <c r="A489" t="inlineStr">
-        <is>
-          <t>21991745778</t>
-        </is>
+      <c r="A489" t="n">
+        <v>21991745778</v>
       </c>
       <c r="B489" t="inlineStr"/>
       <c r="C489" t="inlineStr"/>
@@ -10935,10 +10521,8 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" t="inlineStr">
-        <is>
-          <t>21991745778</t>
-        </is>
+      <c r="A490" t="n">
+        <v>21991745778</v>
       </c>
       <c r="B490" t="inlineStr"/>
       <c r="C490" t="inlineStr"/>
@@ -10954,10 +10538,8 @@
       </c>
     </row>
     <row r="491">
-      <c r="A491" t="inlineStr">
-        <is>
-          <t>21992871155</t>
-        </is>
+      <c r="A491" t="n">
+        <v>21992871155</v>
       </c>
       <c r="B491" t="inlineStr"/>
       <c r="C491" t="inlineStr"/>
@@ -10973,10 +10555,8 @@
       </c>
     </row>
     <row r="492">
-      <c r="A492" t="inlineStr">
-        <is>
-          <t>21964213178</t>
-        </is>
+      <c r="A492" t="n">
+        <v>21964213178</v>
       </c>
       <c r="B492" t="inlineStr"/>
       <c r="C492" t="inlineStr"/>
@@ -10992,10 +10572,8 @@
       </c>
     </row>
     <row r="493">
-      <c r="A493" t="inlineStr">
-        <is>
-          <t>2132816843</t>
-        </is>
+      <c r="A493" t="n">
+        <v>2132816843</v>
       </c>
       <c r="B493" t="inlineStr"/>
       <c r="C493" t="inlineStr"/>
@@ -11011,10 +10589,8 @@
       </c>
     </row>
     <row r="494">
-      <c r="A494" t="inlineStr">
-        <is>
-          <t>21974305509</t>
-        </is>
+      <c r="A494" t="n">
+        <v>21974305509</v>
       </c>
       <c r="B494" t="inlineStr"/>
       <c r="C494" t="inlineStr"/>
@@ -11030,10 +10606,8 @@
       </c>
     </row>
     <row r="495">
-      <c r="A495" t="inlineStr">
-        <is>
-          <t>21980886728</t>
-        </is>
+      <c r="A495" t="n">
+        <v>21980886728</v>
       </c>
       <c r="B495" t="inlineStr"/>
       <c r="C495" t="inlineStr"/>
@@ -11049,10 +10623,8 @@
       </c>
     </row>
     <row r="496">
-      <c r="A496" t="inlineStr">
-        <is>
-          <t>21969552490</t>
-        </is>
+      <c r="A496" t="n">
+        <v>21969552490</v>
       </c>
       <c r="B496" t="inlineStr"/>
       <c r="C496" t="inlineStr"/>
@@ -11068,10 +10640,8 @@
       </c>
     </row>
     <row r="497">
-      <c r="A497" t="inlineStr">
-        <is>
-          <t>21997093857</t>
-        </is>
+      <c r="A497" t="n">
+        <v>21997093857</v>
       </c>
       <c r="B497" t="inlineStr"/>
       <c r="C497" t="inlineStr"/>
@@ -11087,10 +10657,8 @@
       </c>
     </row>
     <row r="498">
-      <c r="A498" t="inlineStr">
-        <is>
-          <t>21999947126</t>
-        </is>
+      <c r="A498" t="n">
+        <v>21999947126</v>
       </c>
       <c r="B498" t="inlineStr"/>
       <c r="C498" t="inlineStr"/>
@@ -11106,10 +10674,8 @@
       </c>
     </row>
     <row r="499">
-      <c r="A499" t="inlineStr">
-        <is>
-          <t>24981249555</t>
-        </is>
+      <c r="A499" t="n">
+        <v>24981249555</v>
       </c>
       <c r="B499" t="inlineStr"/>
       <c r="C499" t="inlineStr"/>
@@ -11125,10 +10691,8 @@
       </c>
     </row>
     <row r="500">
-      <c r="A500" t="inlineStr">
-        <is>
-          <t>21975355330</t>
-        </is>
+      <c r="A500" t="n">
+        <v>21975355330</v>
       </c>
       <c r="B500" t="inlineStr"/>
       <c r="C500" t="inlineStr"/>
@@ -11144,10 +10708,8 @@
       </c>
     </row>
     <row r="501">
-      <c r="A501" t="inlineStr">
-        <is>
-          <t>21964542009</t>
-        </is>
+      <c r="A501" t="n">
+        <v>21964542009</v>
       </c>
       <c r="B501" t="inlineStr"/>
       <c r="C501" t="inlineStr"/>
@@ -11163,10 +10725,8 @@
       </c>
     </row>
     <row r="502">
-      <c r="A502" t="inlineStr">
-        <is>
-          <t>21991679316</t>
-        </is>
+      <c r="A502" t="n">
+        <v>21991679316</v>
       </c>
       <c r="B502" t="inlineStr"/>
       <c r="C502" t="inlineStr"/>
@@ -11182,10 +10742,8 @@
       </c>
     </row>
     <row r="503">
-      <c r="A503" t="inlineStr">
-        <is>
-          <t>21996215900</t>
-        </is>
+      <c r="A503" t="n">
+        <v>21996215900</v>
       </c>
       <c r="B503" t="inlineStr"/>
       <c r="C503" t="inlineStr"/>
@@ -11201,10 +10759,8 @@
       </c>
     </row>
     <row r="504">
-      <c r="A504" t="inlineStr">
-        <is>
-          <t>21993524729</t>
-        </is>
+      <c r="A504" t="n">
+        <v>21993524729</v>
       </c>
       <c r="B504" t="inlineStr"/>
       <c r="C504" t="inlineStr"/>
@@ -11220,10 +10776,8 @@
       </c>
     </row>
     <row r="505">
-      <c r="A505" t="inlineStr">
-        <is>
-          <t>21999947126</t>
-        </is>
+      <c r="A505" t="n">
+        <v>21999947126</v>
       </c>
       <c r="B505" t="inlineStr"/>
       <c r="C505" t="inlineStr"/>
@@ -11239,10 +10793,8 @@
       </c>
     </row>
     <row r="506">
-      <c r="A506" t="inlineStr">
-        <is>
-          <t>21964369786</t>
-        </is>
+      <c r="A506" t="n">
+        <v>21964369786</v>
       </c>
       <c r="B506" t="inlineStr"/>
       <c r="C506" t="inlineStr"/>
@@ -11258,10 +10810,8 @@
       </c>
     </row>
     <row r="507">
-      <c r="A507" t="inlineStr">
-        <is>
-          <t>21988830515</t>
-        </is>
+      <c r="A507" t="n">
+        <v>21988830515</v>
       </c>
       <c r="B507" t="inlineStr"/>
       <c r="C507" t="inlineStr"/>
@@ -11277,10 +10827,8 @@
       </c>
     </row>
     <row r="508">
-      <c r="A508" t="inlineStr">
-        <is>
-          <t>21988931987</t>
-        </is>
+      <c r="A508" t="n">
+        <v>21988931987</v>
       </c>
       <c r="B508" t="inlineStr"/>
       <c r="C508" t="inlineStr"/>
@@ -11296,10 +10844,8 @@
       </c>
     </row>
     <row r="509">
-      <c r="A509" t="inlineStr">
-        <is>
-          <t>21988931987</t>
-        </is>
+      <c r="A509" t="n">
+        <v>21988931987</v>
       </c>
       <c r="B509" t="inlineStr"/>
       <c r="C509" t="inlineStr"/>
@@ -11315,10 +10861,8 @@
       </c>
     </row>
     <row r="510">
-      <c r="A510" t="inlineStr">
-        <is>
-          <t>21988931987</t>
-        </is>
+      <c r="A510" t="n">
+        <v>21988931987</v>
       </c>
       <c r="B510" t="inlineStr"/>
       <c r="C510" t="inlineStr"/>
@@ -11334,10 +10878,8 @@
       </c>
     </row>
     <row r="511">
-      <c r="A511" t="inlineStr">
-        <is>
-          <t>21999551725</t>
-        </is>
+      <c r="A511" t="n">
+        <v>21999551725</v>
       </c>
       <c r="B511" t="inlineStr"/>
       <c r="C511" t="inlineStr"/>
@@ -11353,10 +10895,8 @@
       </c>
     </row>
     <row r="512">
-      <c r="A512" t="inlineStr">
-        <is>
-          <t>21999551725</t>
-        </is>
+      <c r="A512" t="n">
+        <v>21999551725</v>
       </c>
       <c r="B512" t="inlineStr"/>
       <c r="C512" t="inlineStr"/>
@@ -11372,10 +10912,8 @@
       </c>
     </row>
     <row r="513">
-      <c r="A513" t="inlineStr">
-        <is>
-          <t>21999832214</t>
-        </is>
+      <c r="A513" t="n">
+        <v>21999832214</v>
       </c>
       <c r="B513" t="inlineStr"/>
       <c r="C513" t="inlineStr"/>
@@ -11391,10 +10929,8 @@
       </c>
     </row>
     <row r="514">
-      <c r="A514" t="inlineStr">
-        <is>
-          <t>21998149950</t>
-        </is>
+      <c r="A514" t="n">
+        <v>21998149950</v>
       </c>
       <c r="B514" t="inlineStr"/>
       <c r="C514" t="inlineStr"/>
@@ -11410,10 +10946,8 @@
       </c>
     </row>
     <row r="515">
-      <c r="A515" t="inlineStr">
-        <is>
-          <t>21998149950</t>
-        </is>
+      <c r="A515" t="n">
+        <v>21998149950</v>
       </c>
       <c r="B515" t="inlineStr"/>
       <c r="C515" t="inlineStr"/>
@@ -11429,10 +10963,8 @@
       </c>
     </row>
     <row r="516">
-      <c r="A516" t="inlineStr">
-        <is>
-          <t>21995538900</t>
-        </is>
+      <c r="A516" t="n">
+        <v>21995538900</v>
       </c>
       <c r="B516" t="inlineStr"/>
       <c r="C516" t="inlineStr"/>
@@ -11448,10 +10980,8 @@
       </c>
     </row>
     <row r="517">
-      <c r="A517" t="inlineStr">
-        <is>
-          <t>21964369786</t>
-        </is>
+      <c r="A517" t="n">
+        <v>21964369786</v>
       </c>
       <c r="B517" t="inlineStr"/>
       <c r="C517" t="inlineStr"/>
@@ -11467,10 +10997,8 @@
       </c>
     </row>
     <row r="518">
-      <c r="A518" t="inlineStr">
-        <is>
-          <t>21999839252</t>
-        </is>
+      <c r="A518" t="n">
+        <v>21999839252</v>
       </c>
       <c r="B518" t="inlineStr"/>
       <c r="C518" t="inlineStr"/>
@@ -11486,10 +11014,8 @@
       </c>
     </row>
     <row r="519">
-      <c r="A519" t="inlineStr">
-        <is>
-          <t>21983435324</t>
-        </is>
+      <c r="A519" t="n">
+        <v>21983435324</v>
       </c>
       <c r="B519" t="inlineStr"/>
       <c r="C519" t="inlineStr"/>
@@ -11507,45 +11033,45 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>21966652864</t>
+          <t>21999408186</t>
         </is>
       </c>
       <c r="B520" t="inlineStr"/>
       <c r="C520" t="inlineStr"/>
       <c r="D520" t="inlineStr">
         <is>
-          <t>TBG001</t>
+          <t>MESQUITA</t>
         </is>
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2421725491', ' http://www.vivareal.com.br/imovel/vivapro-id-2421725491']</t>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2573849041', ' http://www.vivareal.com.br/imovel/vivapro-id-2573849041']</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>21966652864</t>
+          <t>21966057457</t>
         </is>
       </c>
       <c r="B521" t="inlineStr"/>
       <c r="C521" t="inlineStr"/>
       <c r="D521" t="inlineStr">
         <is>
-          <t>NFCAD205</t>
+          <t>boulevard907</t>
         </is>
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2421725491', ' http://www.vivareal.com.br/imovel/vivapro-id-2421725491']</t>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2531346981', ' http://www.vivareal.com.br/imovel/vivapro-id-2531346981']</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>21966652864</t>
+          <t>41998115436</t>
         </is>
       </c>
       <c r="B522" t="inlineStr"/>
@@ -11557,43 +11083,4565 @@
       </c>
       <c r="E522" t="inlineStr">
         <is>
-          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2421725491', ' http://www.vivareal.com.br/imovel/vivapro-id-2421725491']</t>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>21992193853</t>
+          <t>21971025518</t>
         </is>
       </c>
       <c r="B523" t="inlineStr"/>
       <c r="C523" t="inlineStr"/>
       <c r="D523" t="inlineStr">
         <is>
-          <t>TBG001</t>
+          <t>GOLDEN26</t>
         </is>
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2421725491', ' http://www.vivareal.com.br/imovel/vivapro-id-2421725491']</t>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>21992193853</t>
+          <t>11945044722</t>
         </is>
       </c>
       <c r="B524" t="inlineStr"/>
       <c r="C524" t="inlineStr"/>
       <c r="D524" t="inlineStr">
         <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>24992179568</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr"/>
+      <c r="C525" t="inlineStr"/>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>21998520411</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr"/>
+      <c r="C526" t="inlineStr"/>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>21967050550</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr"/>
+      <c r="C527" t="inlineStr"/>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>21976170405</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr"/>
+      <c r="C528" t="inlineStr"/>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>31971237878</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr"/>
+      <c r="C529" t="inlineStr"/>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>31971237878</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr"/>
+      <c r="C530" t="inlineStr"/>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>32984488556</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr"/>
+      <c r="C531" t="inlineStr"/>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>21998591960</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr"/>
+      <c r="C532" t="inlineStr"/>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>boulevard907</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2531346981', ' http://www.vivareal.com.br/imovel/vivapro-id-2531346981']</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>21996317730</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr"/>
+      <c r="C533" t="inlineStr"/>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>21996317730</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr"/>
+      <c r="C534" t="inlineStr"/>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>21996317730</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr"/>
+      <c r="C535" t="inlineStr"/>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>21996317730</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr"/>
+      <c r="C536" t="inlineStr"/>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>21990110779</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr"/>
+      <c r="C537" t="inlineStr"/>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>21981405773</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr"/>
+      <c r="C538" t="inlineStr"/>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>24998591976</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr"/>
+      <c r="C539" t="inlineStr"/>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>21983669870</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr"/>
+      <c r="C540" t="inlineStr"/>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>22998100243</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr"/>
+      <c r="C541" t="inlineStr"/>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>11932587397</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr"/>
+      <c r="C542" t="inlineStr"/>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>11932587397</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr"/>
+      <c r="C543" t="inlineStr"/>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>71993712025</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr"/>
+      <c r="C544" t="inlineStr"/>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>21980924186</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr"/>
+      <c r="C545" t="inlineStr"/>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>21983416363</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr"/>
+      <c r="C546" t="inlineStr"/>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>21996268692</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr"/>
+      <c r="C547" t="inlineStr"/>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>21983416363</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr"/>
+      <c r="C548" t="inlineStr"/>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>11998953303</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr"/>
+      <c r="C549" t="inlineStr"/>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>11998953303</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr"/>
+      <c r="C550" t="inlineStr"/>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>21997019172</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr"/>
+      <c r="C551" t="inlineStr"/>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>21972291999</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr"/>
+      <c r="C552" t="inlineStr"/>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>21982617395</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr"/>
+      <c r="C553" t="inlineStr"/>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>21972291999</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr"/>
+      <c r="C554" t="inlineStr"/>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>21993776448</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr"/>
+      <c r="C555" t="inlineStr"/>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>11994667095</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr"/>
+      <c r="C556" t="inlineStr"/>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>92992952016</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr"/>
+      <c r="C557" t="inlineStr"/>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>28999317175</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr"/>
+      <c r="C558" t="inlineStr"/>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>21994981793</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr"/>
+      <c r="C559" t="inlineStr"/>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>21994981793</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr"/>
+      <c r="C560" t="inlineStr"/>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>21982528051</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr"/>
+      <c r="C561" t="inlineStr"/>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>21982528051</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr"/>
+      <c r="C562" t="inlineStr"/>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>92992952016</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr"/>
+      <c r="C563" t="inlineStr"/>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>21983141023</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr"/>
+      <c r="C564" t="inlineStr"/>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>21964251498</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr"/>
+      <c r="C565" t="inlineStr"/>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>21964251498</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr"/>
+      <c r="C566" t="inlineStr"/>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>21964251498</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr"/>
+      <c r="C567" t="inlineStr"/>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>21964251498</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr"/>
+      <c r="C568" t="inlineStr"/>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>24999305101</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr"/>
+      <c r="C569" t="inlineStr"/>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>21965129722</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr"/>
+      <c r="C570" t="inlineStr"/>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>21964036653</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr"/>
+      <c r="C571" t="inlineStr"/>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>24974018815</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr"/>
+      <c r="C572" t="inlineStr"/>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>27992536579</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr"/>
+      <c r="C573" t="inlineStr"/>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>37999544420</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr"/>
+      <c r="C574" t="inlineStr"/>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>37999544420</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr"/>
+      <c r="C575" t="inlineStr"/>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>19999359966</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr"/>
+      <c r="C576" t="inlineStr"/>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>21981939968</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr"/>
+      <c r="C577" t="inlineStr"/>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>21971360894</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr"/>
+      <c r="C578" t="inlineStr"/>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>24999305101</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr"/>
+      <c r="C579" t="inlineStr"/>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>21974584396</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr"/>
+      <c r="C580" t="inlineStr"/>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>27992536579</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr"/>
+      <c r="C581" t="inlineStr"/>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>21974485347</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr"/>
+      <c r="C582" t="inlineStr"/>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>21979818652</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr"/>
+      <c r="C583" t="inlineStr"/>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>21979818652</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr"/>
+      <c r="C584" t="inlineStr"/>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>21971945558</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr"/>
+      <c r="C585" t="inlineStr"/>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>21965955554</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr"/>
+      <c r="C586" t="inlineStr"/>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>21979818652</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr"/>
+      <c r="C587" t="inlineStr"/>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>21971945558</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr"/>
+      <c r="C588" t="inlineStr"/>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>21998971059</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr"/>
+      <c r="C589" t="inlineStr"/>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>21991657911</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr"/>
+      <c r="C590" t="inlineStr"/>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>21998800051</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr"/>
+      <c r="C591" t="inlineStr"/>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>21981121720</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr"/>
+      <c r="C592" t="inlineStr"/>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>21978979054</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr"/>
+      <c r="C593" t="inlineStr"/>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>21975991530</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr"/>
+      <c r="C594" t="inlineStr"/>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>21999995037</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr"/>
+      <c r="C595" t="inlineStr"/>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>71991527468</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr"/>
+      <c r="C596" t="inlineStr"/>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>21991657911</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr"/>
+      <c r="C597" t="inlineStr"/>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>21966618013</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr"/>
+      <c r="C598" t="inlineStr"/>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>31984994195</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr"/>
+      <c r="C599" t="inlineStr"/>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>21979038800</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr"/>
+      <c r="C600" t="inlineStr"/>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>21996964938</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr"/>
+      <c r="C601" t="inlineStr"/>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>21996964938</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr"/>
+      <c r="C602" t="inlineStr"/>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>21996964938</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr"/>
+      <c r="C603" t="inlineStr"/>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>21998126448</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr"/>
+      <c r="C604" t="inlineStr"/>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>21998126448</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr"/>
+      <c r="C605" t="inlineStr"/>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>21981624565</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr"/>
+      <c r="C606" t="inlineStr"/>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>21981624565</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr"/>
+      <c r="C607" t="inlineStr"/>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>21996964938</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr"/>
+      <c r="C608" t="inlineStr"/>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>21996964938</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr"/>
+      <c r="C609" t="inlineStr"/>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>21996964938</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr"/>
+      <c r="C610" t="inlineStr"/>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153', ' http://www.vivareal.com.br/imovel/vivapro-id-2645537153']</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>21986240892</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr"/>
+      <c r="C611" t="inlineStr"/>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>21986240892</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr"/>
+      <c r="C612" t="inlineStr"/>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>21981882686</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr"/>
+      <c r="C613" t="inlineStr"/>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>21965485332</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr"/>
+      <c r="C614" t="inlineStr"/>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>21981147722</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr"/>
+      <c r="C615" t="inlineStr"/>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>21983289349</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr"/>
+      <c r="C616" t="inlineStr"/>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>21986240892</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr"/>
+      <c r="C617" t="inlineStr"/>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>11987907961</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr"/>
+      <c r="C618" t="inlineStr"/>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>11987907961</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr"/>
+      <c r="C619" t="inlineStr"/>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>21983289349</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr"/>
+      <c r="C620" t="inlineStr"/>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>21995334031</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr"/>
+      <c r="C621" t="inlineStr"/>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>21980728164</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr"/>
+      <c r="C622" t="inlineStr"/>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>21990530198</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr"/>
+      <c r="C623" t="inlineStr"/>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>21988002555</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr"/>
+      <c r="C624" t="inlineStr"/>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>21982169910</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr"/>
+      <c r="C625" t="inlineStr"/>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>21998043737</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr"/>
+      <c r="C626" t="inlineStr"/>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>21998308072</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr"/>
+      <c r="C627" t="inlineStr"/>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>21996272349</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr"/>
+      <c r="C628" t="inlineStr"/>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>11985364995</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr"/>
+      <c r="C629" t="inlineStr"/>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>21964251498</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr"/>
+      <c r="C630" t="inlineStr"/>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>22998519620</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr"/>
+      <c r="C631" t="inlineStr"/>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>22998519620</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr"/>
+      <c r="C632" t="inlineStr"/>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>21991844386</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr"/>
+      <c r="C633" t="inlineStr"/>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>61981866976</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr"/>
+      <c r="C634" t="inlineStr"/>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>21969870072</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr"/>
+      <c r="C635" t="inlineStr"/>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>51993429811</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr"/>
+      <c r="C636" t="inlineStr"/>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>21981947669</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr"/>
+      <c r="C637" t="inlineStr"/>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>61981866976</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr"/>
+      <c r="C638" t="inlineStr"/>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>21999021300</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr"/>
+      <c r="C639" t="inlineStr"/>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>21987040877</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr"/>
+      <c r="C640" t="inlineStr"/>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>11975430089</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr"/>
+      <c r="C641" t="inlineStr"/>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>21964251498</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr"/>
+      <c r="C642" t="inlineStr"/>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>VI36602</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473', ' http://www.vivareal.com.br/imovel/vivapro-id-2643138473']</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>21994864842</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr"/>
+      <c r="C643" t="inlineStr"/>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>MESQUITA</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2573849041', ' http://www.vivareal.com.br/imovel/vivapro-id-2573849041']</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>22981495010</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr"/>
+      <c r="C644" t="inlineStr"/>
+      <c r="D644" t="inlineStr">
+        <is>
           <t>NFCAD205</t>
         </is>
       </c>
-      <c r="E524" t="inlineStr">
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2421725491', ' http://www.vivareal.com.br/imovel/vivapro-id-2421725491']</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>21988099189</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr"/>
+      <c r="C645" t="inlineStr"/>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>MESQUITA</t>
+        </is>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2573849041', ' http://www.vivareal.com.br/imovel/vivapro-id-2573849041']</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>21989162807</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr"/>
+      <c r="C646" t="inlineStr"/>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>RJVL603</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2439213194', ' http://www.vivareal.com.br/imovel/vivapro-id-2439213194']</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>21999154271</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr"/>
+      <c r="C647" t="inlineStr"/>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>boulevard907</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2531346981', ' http://www.vivareal.com.br/imovel/vivapro-id-2531346981']</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>21981222565</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr"/>
+      <c r="C648" t="inlineStr"/>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>NFCAD205</t>
+        </is>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2421725491', ' http://www.vivareal.com.br/imovel/vivapro-id-2421725491']</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>21998199868</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr"/>
+      <c r="C649" t="inlineStr"/>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>boulevard907</t>
+        </is>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2531346981', ' http://www.vivareal.com.br/imovel/vivapro-id-2531346981']</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>21999981752</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr"/>
+      <c r="C650" t="inlineStr"/>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>TBG001</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2499349478', ' http://www.vivareal.com.br/imovel/vivapro-id-2499349478']</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>21970019821</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr"/>
+      <c r="C651" t="inlineStr"/>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>TBG001</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2499349478', ' http://www.vivareal.com.br/imovel/vivapro-id-2499349478']</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>21981938409</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr"/>
+      <c r="C652" t="inlineStr"/>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>TBG001</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2499349478', ' http://www.vivareal.com.br/imovel/vivapro-id-2499349478']</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>21964226130</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr"/>
+      <c r="C653" t="inlineStr"/>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>boulevard907</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2531346981', ' http://www.vivareal.com.br/imovel/vivapro-id-2531346981']</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>21975492012</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr"/>
+      <c r="C654" t="inlineStr"/>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>VIL811OPEN</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2490499111', ' http://www.vivareal.com.br/imovel/vivapro-id-2490499111']</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>21996110395</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr"/>
+      <c r="C655" t="inlineStr"/>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>TBG001</t>
+        </is>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2499349478', ' http://www.vivareal.com.br/imovel/vivapro-id-2499349478']</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>21991782593</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr"/>
+      <c r="C656" t="inlineStr"/>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>TBG001</t>
+        </is>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2499349478', ' http://www.vivareal.com.br/imovel/vivapro-id-2499349478']</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>11973258765</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr"/>
+      <c r="C657" t="inlineStr"/>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>REC301VEN</t>
+        </is>
+      </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2474077575', ' http://www.vivareal.com.br/imovel/vivapro-id-2474077575']</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>22981104191</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr"/>
+      <c r="C658" t="inlineStr"/>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>NFCAD205</t>
+        </is>
+      </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2421725491', ' http://www.vivareal.com.br/imovel/vivapro-id-2421725491']</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>21971777657</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr"/>
+      <c r="C659" t="inlineStr"/>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>TH103FAB</t>
+        </is>
+      </c>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2474710109', ' http://www.vivareal.com.br/imovel/vivapro-id-2474710109']</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>21971777657</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr"/>
+      <c r="C660" t="inlineStr"/>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>TH103FAB</t>
+        </is>
+      </c>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2474710109', ' http://www.vivareal.com.br/imovel/vivapro-id-2474710109']</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>21971274713</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr"/>
+      <c r="C661" t="inlineStr"/>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>ACQUAFINA6500</t>
+        </is>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520256575', ' http://www.vivareal.com.br/imovel/vivapro-id-2520256575']</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>21964711508</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr"/>
+      <c r="C662" t="inlineStr"/>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>boulevard907</t>
+        </is>
+      </c>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2531346981', ' http://www.vivareal.com.br/imovel/vivapro-id-2531346981']</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>21999937776</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr"/>
+      <c r="C663" t="inlineStr"/>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>TH103FAB</t>
+        </is>
+      </c>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2474710109', ' http://www.vivareal.com.br/imovel/vivapro-id-2474710109']</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>21964711508</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr"/>
+      <c r="C664" t="inlineStr"/>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>boulevard907</t>
+        </is>
+      </c>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2531346981', ' http://www.vivareal.com.br/imovel/vivapro-id-2531346981']</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>21997737766</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr"/>
+      <c r="C665" t="inlineStr"/>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>ACQUAFINA6500</t>
+        </is>
+      </c>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520256575', ' http://www.vivareal.com.br/imovel/vivapro-id-2520256575']</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>19974179289</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr"/>
+      <c r="C666" t="inlineStr"/>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>ACQUAFINA6500</t>
+        </is>
+      </c>
+      <c r="E666" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520256575', ' http://www.vivareal.com.br/imovel/vivapro-id-2520256575']</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>21993795890</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr"/>
+      <c r="C667" t="inlineStr"/>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>boulevard907</t>
+        </is>
+      </c>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2531346981', ' http://www.vivareal.com.br/imovel/vivapro-id-2531346981']</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>22998133019</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr"/>
+      <c r="C668" t="inlineStr"/>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>67992811515</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr"/>
+      <c r="C669" t="inlineStr"/>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>22998133019</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr"/>
+      <c r="C670" t="inlineStr"/>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>22998133019</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr"/>
+      <c r="C671" t="inlineStr"/>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>22998133019</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr"/>
+      <c r="C672" t="inlineStr"/>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>22998133019</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr"/>
+      <c r="C673" t="inlineStr"/>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>67992811515</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr"/>
+      <c r="C674" t="inlineStr"/>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>21994120906</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr"/>
+      <c r="C675" t="inlineStr"/>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>21994120906</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr"/>
+      <c r="C676" t="inlineStr"/>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>21994120906</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr"/>
+      <c r="C677" t="inlineStr"/>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>21994120906</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr"/>
+      <c r="C678" t="inlineStr"/>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>22998133019</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr"/>
+      <c r="C679" t="inlineStr"/>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>22998133019</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr"/>
+      <c r="C680" t="inlineStr"/>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>21964226130</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr"/>
+      <c r="C681" t="inlineStr"/>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>boulevard907</t>
+        </is>
+      </c>
+      <c r="E681" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2531346981', ' http://www.vivareal.com.br/imovel/vivapro-id-2531346981']</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>21964226130</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr"/>
+      <c r="C682" t="inlineStr"/>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>VIL811OPEN</t>
+        </is>
+      </c>
+      <c r="E682" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2490499111', ' http://www.vivareal.com.br/imovel/vivapro-id-2490499111']</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>21973180467</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr"/>
+      <c r="C683" t="inlineStr"/>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E683" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>21970840619</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr"/>
+      <c r="C684" t="inlineStr"/>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E684" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>21994120906</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr"/>
+      <c r="C685" t="inlineStr"/>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E685" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>21986169192</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr"/>
+      <c r="C686" t="inlineStr"/>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>ACQUAFINA6500</t>
+        </is>
+      </c>
+      <c r="E686" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520256575', ' http://www.vivareal.com.br/imovel/vivapro-id-2520256575']</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>21972224781</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr"/>
+      <c r="C687" t="inlineStr"/>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E687" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>21970042868</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr"/>
+      <c r="C688" t="inlineStr"/>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E688" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>21996990230</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr"/>
+      <c r="C689" t="inlineStr"/>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>21997185403</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr"/>
+      <c r="C690" t="inlineStr"/>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E690" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>21991124409</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr"/>
+      <c r="C691" t="inlineStr"/>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>ACQUAFINA6500</t>
+        </is>
+      </c>
+      <c r="E691" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520256575', ' http://www.vivareal.com.br/imovel/vivapro-id-2520256575']</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>21986462002</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr"/>
+      <c r="C692" t="inlineStr"/>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E692" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>21986462002</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr"/>
+      <c r="C693" t="inlineStr"/>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E693" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>21965611180</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr"/>
+      <c r="C694" t="inlineStr"/>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E694" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>21995866957</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr"/>
+      <c r="C695" t="inlineStr"/>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E695" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>21997093857</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr"/>
+      <c r="C696" t="inlineStr"/>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>21991191950</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr"/>
+      <c r="C697" t="inlineStr"/>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>NFCAD205</t>
+        </is>
+      </c>
+      <c r="E697" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2421725491', ' http://www.vivareal.com.br/imovel/vivapro-id-2421725491']</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>21999547529</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr"/>
+      <c r="C698" t="inlineStr"/>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E698" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>21965531603</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr"/>
+      <c r="C699" t="inlineStr"/>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>21998808758</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr"/>
+      <c r="C700" t="inlineStr"/>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>ACQUAFINA6500</t>
+        </is>
+      </c>
+      <c r="E700" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520256575', ' http://www.vivareal.com.br/imovel/vivapro-id-2520256575']</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>21998808758</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr"/>
+      <c r="C701" t="inlineStr"/>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>ACQUAFINA6500</t>
+        </is>
+      </c>
+      <c r="E701" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520256575', ' http://www.vivareal.com.br/imovel/vivapro-id-2520256575']</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>21994375918</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr"/>
+      <c r="C702" t="inlineStr"/>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>MESQUITA</t>
+        </is>
+      </c>
+      <c r="E702" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2573849041', ' http://www.vivareal.com.br/imovel/vivapro-id-2573849041']</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>21990116083</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr"/>
+      <c r="C703" t="inlineStr"/>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>31991075842</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr"/>
+      <c r="C704" t="inlineStr"/>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>ACQUAFINA6500</t>
+        </is>
+      </c>
+      <c r="E704" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520256575', ' http://www.vivareal.com.br/imovel/vivapro-id-2520256575']</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>21973368020</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr"/>
+      <c r="C705" t="inlineStr"/>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E705" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>11974450391</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr"/>
+      <c r="C706" t="inlineStr"/>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>ACQUAFINA6500</t>
+        </is>
+      </c>
+      <c r="E706" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520256575', ' http://www.vivareal.com.br/imovel/vivapro-id-2520256575']</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>13974214886</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr"/>
+      <c r="C707" t="inlineStr"/>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>ACQUAFINA6500</t>
+        </is>
+      </c>
+      <c r="E707" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520256575', ' http://www.vivareal.com.br/imovel/vivapro-id-2520256575']</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>21976732806</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr"/>
+      <c r="C708" t="inlineStr"/>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E708" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>21986463936</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr"/>
+      <c r="C709" t="inlineStr"/>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>ACQUAFINA6500</t>
+        </is>
+      </c>
+      <c r="E709" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520256575', ' http://www.vivareal.com.br/imovel/vivapro-id-2520256575']</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>21986463936</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr"/>
+      <c r="C710" t="inlineStr"/>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>ACQUAFINA6500</t>
+        </is>
+      </c>
+      <c r="E710" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520256575', ' http://www.vivareal.com.br/imovel/vivapro-id-2520256575']</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>21982889389</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr"/>
+      <c r="C711" t="inlineStr"/>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E711" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>21982889389</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr"/>
+      <c r="C712" t="inlineStr"/>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E712" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>21982889389</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr"/>
+      <c r="C713" t="inlineStr"/>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E713" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>21982889389</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr"/>
+      <c r="C714" t="inlineStr"/>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E714" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>21989580842</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr"/>
+      <c r="C715" t="inlineStr"/>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E715" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>21964304940</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr"/>
+      <c r="C716" t="inlineStr"/>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>ACQUAFINA6500</t>
+        </is>
+      </c>
+      <c r="E716" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520256575', ' http://www.vivareal.com.br/imovel/vivapro-id-2520256575']</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>21980367961</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr"/>
+      <c r="C717" t="inlineStr"/>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E717" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>21986462002</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr"/>
+      <c r="C718" t="inlineStr"/>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E718" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>21964304940</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr"/>
+      <c r="C719" t="inlineStr"/>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>ACQUAFINA6500</t>
+        </is>
+      </c>
+      <c r="E719" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520256575', ' http://www.vivareal.com.br/imovel/vivapro-id-2520256575']</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>21987697121</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr"/>
+      <c r="C720" t="inlineStr"/>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E720" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>21997778473</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr"/>
+      <c r="C721" t="inlineStr"/>
+      <c r="D721" t="inlineStr">
+        <is>
+          <t>ACQUAFINA6500</t>
+        </is>
+      </c>
+      <c r="E721" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520256575', ' http://www.vivareal.com.br/imovel/vivapro-id-2520256575']</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>21997093857</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr"/>
+      <c r="C722" t="inlineStr"/>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E722" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>21966417991</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr"/>
+      <c r="C723" t="inlineStr"/>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E723" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>11967573011</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr"/>
+      <c r="C724" t="inlineStr"/>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E724" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>21983618535</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr"/>
+      <c r="C725" t="inlineStr"/>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E725" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>21991745778</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr"/>
+      <c r="C726" t="inlineStr"/>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E726" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>21991745778</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr"/>
+      <c r="C727" t="inlineStr"/>
+      <c r="D727" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E727" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>21992871155</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr"/>
+      <c r="C728" t="inlineStr"/>
+      <c r="D728" t="inlineStr">
+        <is>
+          <t>ACQUAFINA6500</t>
+        </is>
+      </c>
+      <c r="E728" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520256575', ' http://www.vivareal.com.br/imovel/vivapro-id-2520256575']</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>21964213178</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr"/>
+      <c r="C729" t="inlineStr"/>
+      <c r="D729" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E729" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>2132816843</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr"/>
+      <c r="C730" t="inlineStr"/>
+      <c r="D730" t="inlineStr">
+        <is>
+          <t>TBG001</t>
+        </is>
+      </c>
+      <c r="E730" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2499349478', ' http://www.vivareal.com.br/imovel/vivapro-id-2499349478']</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>21974305509</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr"/>
+      <c r="C731" t="inlineStr"/>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t>BAND602</t>
+        </is>
+      </c>
+      <c r="E731" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2567791676', ' http://www.vivareal.com.br/imovel/vivapro-id-2567791676']</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>21980886728</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr"/>
+      <c r="C732" t="inlineStr"/>
+      <c r="D732" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E732" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>21969552490</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr"/>
+      <c r="C733" t="inlineStr"/>
+      <c r="D733" t="inlineStr">
+        <is>
+          <t>BAND602</t>
+        </is>
+      </c>
+      <c r="E733" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2567791676', ' http://www.vivareal.com.br/imovel/vivapro-id-2567791676']</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>21997093857</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr"/>
+      <c r="C734" t="inlineStr"/>
+      <c r="D734" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E734" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>21999947126</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr"/>
+      <c r="C735" t="inlineStr"/>
+      <c r="D735" t="inlineStr">
+        <is>
+          <t>BAND602</t>
+        </is>
+      </c>
+      <c r="E735" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2567791676', ' http://www.vivareal.com.br/imovel/vivapro-id-2567791676']</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>24981249555</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr"/>
+      <c r="C736" t="inlineStr"/>
+      <c r="D736" t="inlineStr">
+        <is>
+          <t>BAND602</t>
+        </is>
+      </c>
+      <c r="E736" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2567791676', ' http://www.vivareal.com.br/imovel/vivapro-id-2567791676']</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>21975355330</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr"/>
+      <c r="C737" t="inlineStr"/>
+      <c r="D737" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E737" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>21964542009</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr"/>
+      <c r="C738" t="inlineStr"/>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>BAND602</t>
+        </is>
+      </c>
+      <c r="E738" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2567791676', ' http://www.vivareal.com.br/imovel/vivapro-id-2567791676']</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>21991679316</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr"/>
+      <c r="C739" t="inlineStr"/>
+      <c r="D739" t="inlineStr">
+        <is>
+          <t>ACQUAFINA6500</t>
+        </is>
+      </c>
+      <c r="E739" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520256575', ' http://www.vivareal.com.br/imovel/vivapro-id-2520256575']</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>21996215900</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr"/>
+      <c r="C740" t="inlineStr"/>
+      <c r="D740" t="inlineStr">
+        <is>
+          <t>ACQUAFINA6500</t>
+        </is>
+      </c>
+      <c r="E740" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520256575', ' http://www.vivareal.com.br/imovel/vivapro-id-2520256575']</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>21993524729</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr"/>
+      <c r="C741" t="inlineStr"/>
+      <c r="D741" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E741" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>21999947126</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr"/>
+      <c r="C742" t="inlineStr"/>
+      <c r="D742" t="inlineStr">
+        <is>
+          <t>BAND602</t>
+        </is>
+      </c>
+      <c r="E742" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2567791676', ' http://www.vivareal.com.br/imovel/vivapro-id-2567791676']</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>21964369786</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr"/>
+      <c r="C743" t="inlineStr"/>
+      <c r="D743" t="inlineStr">
+        <is>
+          <t>BAND602</t>
+        </is>
+      </c>
+      <c r="E743" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2567791676', ' http://www.vivareal.com.br/imovel/vivapro-id-2567791676']</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>21988830515</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr"/>
+      <c r="C744" t="inlineStr"/>
+      <c r="D744" t="inlineStr">
+        <is>
+          <t>ACQUAFINA6500</t>
+        </is>
+      </c>
+      <c r="E744" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520256575', ' http://www.vivareal.com.br/imovel/vivapro-id-2520256575']</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>21988931987</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr"/>
+      <c r="C745" t="inlineStr"/>
+      <c r="D745" t="inlineStr">
+        <is>
+          <t>ACQUAFINA6500</t>
+        </is>
+      </c>
+      <c r="E745" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520256575', ' http://www.vivareal.com.br/imovel/vivapro-id-2520256575']</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>21988931987</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr"/>
+      <c r="C746" t="inlineStr"/>
+      <c r="D746" t="inlineStr">
+        <is>
+          <t>ACQUAFINA6500</t>
+        </is>
+      </c>
+      <c r="E746" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520256575', ' http://www.vivareal.com.br/imovel/vivapro-id-2520256575']</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>21988931987</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr"/>
+      <c r="C747" t="inlineStr"/>
+      <c r="D747" t="inlineStr">
+        <is>
+          <t>ACQUAFINA6500</t>
+        </is>
+      </c>
+      <c r="E747" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520256575', ' http://www.vivareal.com.br/imovel/vivapro-id-2520256575']</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>21999551725</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr"/>
+      <c r="C748" t="inlineStr"/>
+      <c r="D748" t="inlineStr">
+        <is>
+          <t>BAND602</t>
+        </is>
+      </c>
+      <c r="E748" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2567791676', ' http://www.vivareal.com.br/imovel/vivapro-id-2567791676']</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>21999551725</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr"/>
+      <c r="C749" t="inlineStr"/>
+      <c r="D749" t="inlineStr">
+        <is>
+          <t>BAND602</t>
+        </is>
+      </c>
+      <c r="E749" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2567791676', ' http://www.vivareal.com.br/imovel/vivapro-id-2567791676']</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>21999832214</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr"/>
+      <c r="C750" t="inlineStr"/>
+      <c r="D750" t="inlineStr">
+        <is>
+          <t>CONDBOSQUE1493</t>
+        </is>
+      </c>
+      <c r="E750" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520254192', ' http://www.vivareal.com.br/imovel/vivapro-id-2520254192']</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>21998149950</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr"/>
+      <c r="C751" t="inlineStr"/>
+      <c r="D751" t="inlineStr">
+        <is>
+          <t>ACQUAFINA6500</t>
+        </is>
+      </c>
+      <c r="E751" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520256575', ' http://www.vivareal.com.br/imovel/vivapro-id-2520256575']</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>21998149950</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr"/>
+      <c r="C752" t="inlineStr"/>
+      <c r="D752" t="inlineStr">
+        <is>
+          <t>ACQUAFINA6500</t>
+        </is>
+      </c>
+      <c r="E752" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2520256575', ' http://www.vivareal.com.br/imovel/vivapro-id-2520256575']</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>21995538900</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr"/>
+      <c r="C753" t="inlineStr"/>
+      <c r="D753" t="inlineStr">
+        <is>
+          <t>BAND602</t>
+        </is>
+      </c>
+      <c r="E753" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2567791676', ' http://www.vivareal.com.br/imovel/vivapro-id-2567791676']</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>21964369786</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr"/>
+      <c r="C754" t="inlineStr"/>
+      <c r="D754" t="inlineStr">
+        <is>
+          <t>BAND602</t>
+        </is>
+      </c>
+      <c r="E754" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2567791676', ' http://www.vivareal.com.br/imovel/vivapro-id-2567791676']</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>21999839252</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr"/>
+      <c r="C755" t="inlineStr"/>
+      <c r="D755" t="inlineStr">
+        <is>
+          <t>BAND602</t>
+        </is>
+      </c>
+      <c r="E755" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2567791676', ' http://www.vivareal.com.br/imovel/vivapro-id-2567791676']</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>21983435324</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr"/>
+      <c r="C756" t="inlineStr"/>
+      <c r="D756" t="inlineStr">
+        <is>
+          <t>BAND602</t>
+        </is>
+      </c>
+      <c r="E756" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2567791676', ' http://www.vivareal.com.br/imovel/vivapro-id-2567791676']</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>21992193853</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr"/>
+      <c r="C757" t="inlineStr"/>
+      <c r="D757" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E757" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2421725491', ' http://www.vivareal.com.br/imovel/vivapro-id-2421725491']</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>21992193853</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr"/>
+      <c r="C758" t="inlineStr"/>
+      <c r="D758" t="inlineStr">
+        <is>
+          <t>TBG001</t>
+        </is>
+      </c>
+      <c r="E758" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2421725491', ' http://www.vivareal.com.br/imovel/vivapro-id-2421725491']</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>21966652864</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr"/>
+      <c r="C759" t="inlineStr"/>
+      <c r="D759" t="inlineStr">
+        <is>
+          <t>TBG001</t>
+        </is>
+      </c>
+      <c r="E759" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2421725491', ' http://www.vivareal.com.br/imovel/vivapro-id-2421725491']</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>21966652864</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr"/>
+      <c r="C760" t="inlineStr"/>
+      <c r="D760" t="inlineStr">
+        <is>
+          <t>GOLDEN26</t>
+        </is>
+      </c>
+      <c r="E760" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2421725491', ' http://www.vivareal.com.br/imovel/vivapro-id-2421725491']</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>21992193853</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr"/>
+      <c r="C761" t="inlineStr"/>
+      <c r="D761" t="inlineStr">
+        <is>
+          <t>TBG001</t>
+        </is>
+      </c>
+      <c r="E761" t="inlineStr">
+        <is>
+          <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2421725491', ' http://www.vivareal.com.br/imovel/vivapro-id-2421725491']</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>21992193853</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr"/>
+      <c r="C762" t="inlineStr"/>
+      <c r="D762" t="inlineStr">
+        <is>
+          <t>NFCAD205</t>
+        </is>
+      </c>
+      <c r="E762" t="inlineStr">
         <is>
           <t>['http:/www.zapimoveis.com.br/imovel/imovel-id-2421725491', ' http://www.vivareal.com.br/imovel/vivapro-id-2421725491']</t>
         </is>
